--- a/Ontologies/southern_mountains.xlsx
+++ b/Ontologies/southern_mountains.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="576">
   <si>
     <t>Mountain Range</t>
   </si>
@@ -1729,6 +1729,24 @@
   </si>
   <si>
     <t>c5d4a226-97b0-4ec2-bfd3-5f7623e5e54a</t>
+  </si>
+  <si>
+    <t>bristle tips colour</t>
+  </si>
+  <si>
+    <t>arm size</t>
+  </si>
+  <si>
+    <t>tongue like</t>
+  </si>
+  <si>
+    <t>uri of taste</t>
+  </si>
+  <si>
+    <t>markings are on</t>
+  </si>
+  <si>
+    <t>uri of body part</t>
   </si>
 </sst>
 </file>
@@ -2240,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FE54"/>
+  <dimension ref="A1:FY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="FS31" workbookViewId="0">
+      <selection activeCell="FY48" sqref="FY48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,130 +2292,135 @@
     <col min="26" max="26" width="35.6640625" style="4" customWidth="1"/>
     <col min="27" max="27" width="15.5546875" style="4" customWidth="1"/>
     <col min="28" max="28" width="14" style="4" customWidth="1"/>
-    <col min="29" max="29" width="36" style="4" customWidth="1"/>
-    <col min="30" max="30" width="24.44140625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="36.44140625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" style="4" customWidth="1"/>
-    <col min="33" max="33" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.5546875" style="4" customWidth="1"/>
-    <col min="35" max="35" width="16" style="4" customWidth="1"/>
-    <col min="36" max="36" width="37.44140625" style="4" customWidth="1"/>
-    <col min="37" max="37" width="21.21875" style="4" customWidth="1"/>
-    <col min="38" max="38" width="39" style="4" customWidth="1"/>
-    <col min="39" max="39" width="15.77734375" style="4" customWidth="1"/>
-    <col min="40" max="40" width="11.33203125" style="4" customWidth="1"/>
-    <col min="41" max="41" width="14.109375" style="4" customWidth="1"/>
-    <col min="42" max="43" width="14" style="4" customWidth="1"/>
-    <col min="44" max="44" width="12.77734375" style="4" customWidth="1"/>
-    <col min="45" max="45" width="20.109375" style="4" customWidth="1"/>
-    <col min="46" max="46" width="36.77734375" style="4" customWidth="1"/>
-    <col min="47" max="47" width="28.109375" style="4" customWidth="1"/>
-    <col min="48" max="48" width="37.21875" style="4" customWidth="1"/>
-    <col min="49" max="49" width="11.88671875" style="4" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" style="4" customWidth="1"/>
-    <col min="51" max="51" width="11.109375" style="4" customWidth="1"/>
-    <col min="52" max="52" width="10.88671875" style="4" customWidth="1"/>
-    <col min="53" max="53" width="11.109375" style="4" customWidth="1"/>
-    <col min="54" max="58" width="8.88671875" style="4"/>
-    <col min="59" max="59" width="35.6640625" style="4" customWidth="1"/>
-    <col min="60" max="61" width="8.88671875" style="4"/>
-    <col min="62" max="62" width="12.5546875" style="4" customWidth="1"/>
-    <col min="63" max="63" width="8.88671875" style="4"/>
-    <col min="64" max="64" width="12.77734375" style="4" customWidth="1"/>
-    <col min="65" max="65" width="9.5546875" style="4" customWidth="1"/>
-    <col min="66" max="66" width="14.33203125" style="4" customWidth="1"/>
-    <col min="67" max="67" width="8.88671875" style="4"/>
-    <col min="68" max="68" width="37.5546875" style="4" customWidth="1"/>
-    <col min="69" max="69" width="11.21875" style="15" customWidth="1"/>
-    <col min="70" max="70" width="35" style="4" customWidth="1"/>
-    <col min="71" max="71" width="12.109375" style="4" customWidth="1"/>
-    <col min="72" max="72" width="8.88671875" style="4"/>
-    <col min="73" max="73" width="32.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="8.88671875" style="4"/>
-    <col min="76" max="76" width="9.77734375" style="4" customWidth="1"/>
-    <col min="77" max="77" width="33.88671875" style="4" customWidth="1"/>
-    <col min="78" max="78" width="17.21875" style="4" customWidth="1"/>
+    <col min="29" max="40" width="36" style="4" customWidth="1"/>
+    <col min="41" max="41" width="24.44140625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="36.44140625" style="4" customWidth="1"/>
+    <col min="43" max="43" width="14.6640625" style="4" customWidth="1"/>
+    <col min="44" max="44" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="35.5546875" style="4" customWidth="1"/>
+    <col min="46" max="46" width="16" style="4" customWidth="1"/>
+    <col min="47" max="47" width="37.44140625" style="4" customWidth="1"/>
+    <col min="48" max="48" width="21.21875" style="4" customWidth="1"/>
+    <col min="49" max="49" width="39" style="4" customWidth="1"/>
+    <col min="50" max="50" width="26.21875" style="4" customWidth="1"/>
+    <col min="51" max="51" width="15.77734375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="11.33203125" style="4" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" style="4" customWidth="1"/>
+    <col min="54" max="55" width="14" style="4" customWidth="1"/>
+    <col min="56" max="56" width="12.77734375" style="4" customWidth="1"/>
+    <col min="57" max="57" width="20.109375" style="4" customWidth="1"/>
+    <col min="58" max="58" width="36.77734375" style="4" customWidth="1"/>
+    <col min="59" max="59" width="28.109375" style="4" customWidth="1"/>
+    <col min="60" max="60" width="37.21875" style="4" customWidth="1"/>
+    <col min="61" max="61" width="11.88671875" style="4" customWidth="1"/>
+    <col min="62" max="62" width="13.33203125" style="4" customWidth="1"/>
+    <col min="63" max="63" width="11.109375" style="4" customWidth="1"/>
+    <col min="64" max="64" width="10.88671875" style="4" customWidth="1"/>
+    <col min="65" max="65" width="11.109375" style="4" customWidth="1"/>
+    <col min="66" max="70" width="8.88671875" style="4"/>
+    <col min="71" max="71" width="35.6640625" style="4" customWidth="1"/>
+    <col min="72" max="73" width="8.88671875" style="4"/>
+    <col min="74" max="74" width="12.5546875" style="4" customWidth="1"/>
+    <col min="75" max="75" width="8.88671875" style="4"/>
+    <col min="76" max="76" width="12.77734375" style="4" customWidth="1"/>
+    <col min="77" max="77" width="9.5546875" style="4" customWidth="1"/>
+    <col min="78" max="78" width="14.33203125" style="4" customWidth="1"/>
     <col min="79" max="79" width="8.88671875" style="4"/>
-    <col min="80" max="80" width="10.88671875" style="4" customWidth="1"/>
-    <col min="81" max="82" width="11.44140625" style="4" customWidth="1"/>
-    <col min="83" max="83" width="11.77734375" style="4" customWidth="1"/>
+    <col min="80" max="80" width="37.5546875" style="4" customWidth="1"/>
+    <col min="81" max="81" width="11.21875" style="15" customWidth="1"/>
+    <col min="82" max="82" width="35" style="4" customWidth="1"/>
+    <col min="83" max="83" width="12.109375" style="4" customWidth="1"/>
     <col min="84" max="84" width="8.88671875" style="4"/>
-    <col min="85" max="85" width="11.21875" style="4" customWidth="1"/>
-    <col min="86" max="86" width="12.88671875" style="4" customWidth="1"/>
-    <col min="87" max="87" width="18.21875" style="4" customWidth="1"/>
-    <col min="88" max="88" width="34.6640625" style="4" customWidth="1"/>
-    <col min="89" max="89" width="16.21875" style="4" customWidth="1"/>
-    <col min="90" max="90" width="36.77734375" style="4" customWidth="1"/>
+    <col min="85" max="85" width="32.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="8.88671875" style="4"/>
+    <col min="88" max="88" width="9.77734375" style="4" customWidth="1"/>
+    <col min="89" max="89" width="33.88671875" style="4" customWidth="1"/>
+    <col min="90" max="90" width="17.21875" style="4" customWidth="1"/>
     <col min="91" max="91" width="8.88671875" style="4"/>
-    <col min="92" max="92" width="13" style="4" customWidth="1"/>
-    <col min="93" max="93" width="8.88671875" style="4"/>
-    <col min="94" max="94" width="11.77734375" style="4" customWidth="1"/>
-    <col min="95" max="95" width="11.6640625" style="4" customWidth="1"/>
-    <col min="96" max="96" width="11" style="4" customWidth="1"/>
-    <col min="97" max="97" width="11.44140625" style="4" customWidth="1"/>
-    <col min="98" max="98" width="37.21875" style="4" customWidth="1"/>
-    <col min="99" max="99" width="11.77734375" style="4" customWidth="1"/>
-    <col min="100" max="100" width="8.88671875" style="4"/>
-    <col min="101" max="101" width="37.88671875" style="4" customWidth="1"/>
-    <col min="102" max="103" width="8.88671875" style="4"/>
-    <col min="104" max="104" width="11.33203125" style="4" customWidth="1"/>
-    <col min="105" max="105" width="20.6640625" style="4" customWidth="1"/>
-    <col min="106" max="106" width="36" style="4" customWidth="1"/>
-    <col min="107" max="108" width="8.88671875" style="4"/>
-    <col min="109" max="109" width="11.21875" style="4" customWidth="1"/>
-    <col min="110" max="110" width="10.44140625" style="4" customWidth="1"/>
-    <col min="111" max="114" width="12" style="4" customWidth="1"/>
-    <col min="115" max="115" width="38" style="4" customWidth="1"/>
-    <col min="116" max="116" width="12.33203125" style="4" customWidth="1"/>
-    <col min="117" max="117" width="35.33203125" style="4" customWidth="1"/>
-    <col min="118" max="118" width="10.5546875" style="4" customWidth="1"/>
-    <col min="119" max="119" width="11.109375" style="4" customWidth="1"/>
-    <col min="120" max="120" width="8.88671875" style="4"/>
-    <col min="121" max="121" width="12.5546875" style="4" customWidth="1"/>
-    <col min="122" max="122" width="8.88671875" style="4"/>
-    <col min="123" max="123" width="13.88671875" style="4" customWidth="1"/>
-    <col min="124" max="124" width="16.5546875" style="4" customWidth="1"/>
-    <col min="125" max="125" width="13.21875" style="4" customWidth="1"/>
-    <col min="126" max="126" width="13" style="4" customWidth="1"/>
-    <col min="127" max="127" width="39.44140625" style="4" customWidth="1"/>
-    <col min="128" max="128" width="8.88671875" style="4"/>
-    <col min="129" max="129" width="11.44140625" style="4" customWidth="1"/>
-    <col min="130" max="130" width="12.5546875" style="4" customWidth="1"/>
-    <col min="131" max="131" width="8.88671875" style="4"/>
-    <col min="132" max="132" width="13.44140625" style="4" customWidth="1"/>
-    <col min="133" max="133" width="8.88671875" style="4"/>
-    <col min="134" max="134" width="18.88671875" style="4" customWidth="1"/>
-    <col min="135" max="135" width="34.21875" style="4" customWidth="1"/>
-    <col min="136" max="136" width="29.33203125" style="4" customWidth="1"/>
-    <col min="137" max="137" width="37.21875" style="4" customWidth="1"/>
-    <col min="138" max="138" width="23.44140625" style="4" customWidth="1"/>
-    <col min="139" max="139" width="36.44140625" style="4" customWidth="1"/>
-    <col min="140" max="140" width="8.88671875" style="4"/>
-    <col min="141" max="141" width="32.44140625" style="4" customWidth="1"/>
-    <col min="142" max="142" width="37.88671875" style="4" customWidth="1"/>
-    <col min="143" max="143" width="25.33203125" style="4" customWidth="1"/>
-    <col min="144" max="144" width="35.44140625" style="4" customWidth="1"/>
-    <col min="145" max="145" width="45.6640625" style="4" customWidth="1"/>
-    <col min="146" max="146" width="35.44140625" style="4" customWidth="1"/>
-    <col min="147" max="147" width="28.21875" style="4" customWidth="1"/>
-    <col min="148" max="148" width="39.6640625" style="4" customWidth="1"/>
-    <col min="149" max="149" width="21.44140625" style="4" customWidth="1"/>
-    <col min="150" max="150" width="37" style="4" customWidth="1"/>
-    <col min="151" max="151" width="21.44140625" style="4" customWidth="1"/>
-    <col min="152" max="152" width="37.77734375" style="4" customWidth="1"/>
-    <col min="153" max="153" width="35" style="4" customWidth="1"/>
-    <col min="154" max="154" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="11.21875" style="4" customWidth="1"/>
-    <col min="156" max="156" width="21.5546875" style="4" customWidth="1"/>
-    <col min="157" max="157" width="35.109375" style="4" customWidth="1"/>
-    <col min="158" max="158" width="17.44140625" style="4" customWidth="1"/>
-    <col min="159" max="159" width="36.21875" style="4" customWidth="1"/>
-    <col min="160" max="160" width="31.33203125" style="4" customWidth="1"/>
-    <col min="161" max="161" width="38.77734375" style="4" customWidth="1"/>
-    <col min="162" max="16384" width="8.88671875" style="4"/>
+    <col min="92" max="92" width="10.88671875" style="4" customWidth="1"/>
+    <col min="93" max="94" width="11.44140625" style="4" customWidth="1"/>
+    <col min="95" max="95" width="11.77734375" style="4" customWidth="1"/>
+    <col min="96" max="96" width="8.88671875" style="4"/>
+    <col min="97" max="97" width="11.21875" style="4" customWidth="1"/>
+    <col min="98" max="100" width="12.88671875" style="4" customWidth="1"/>
+    <col min="101" max="101" width="18.21875" style="4" customWidth="1"/>
+    <col min="102" max="102" width="34.6640625" style="4" customWidth="1"/>
+    <col min="103" max="103" width="16.21875" style="4" customWidth="1"/>
+    <col min="104" max="104" width="36.77734375" style="4" customWidth="1"/>
+    <col min="105" max="105" width="8.88671875" style="4"/>
+    <col min="106" max="106" width="13" style="4" customWidth="1"/>
+    <col min="107" max="107" width="8.88671875" style="4"/>
+    <col min="108" max="108" width="11.77734375" style="4" customWidth="1"/>
+    <col min="109" max="109" width="11.6640625" style="4" customWidth="1"/>
+    <col min="110" max="110" width="11" style="4" customWidth="1"/>
+    <col min="111" max="111" width="11.44140625" style="4" customWidth="1"/>
+    <col min="112" max="112" width="37.21875" style="4" customWidth="1"/>
+    <col min="113" max="113" width="11.77734375" style="4" customWidth="1"/>
+    <col min="114" max="114" width="8.88671875" style="4"/>
+    <col min="115" max="115" width="37.88671875" style="4" customWidth="1"/>
+    <col min="116" max="117" width="8.88671875" style="4"/>
+    <col min="118" max="118" width="11.33203125" style="4" customWidth="1"/>
+    <col min="119" max="119" width="20.6640625" style="4" customWidth="1"/>
+    <col min="120" max="120" width="36" style="4" customWidth="1"/>
+    <col min="121" max="122" width="8.88671875" style="4"/>
+    <col min="123" max="123" width="11.21875" style="4" customWidth="1"/>
+    <col min="124" max="124" width="10.44140625" style="4" customWidth="1"/>
+    <col min="125" max="128" width="12" style="4" customWidth="1"/>
+    <col min="129" max="129" width="38" style="4" customWidth="1"/>
+    <col min="130" max="130" width="16" style="4" customWidth="1"/>
+    <col min="131" max="131" width="38" style="4" customWidth="1"/>
+    <col min="132" max="132" width="12.33203125" style="4" customWidth="1"/>
+    <col min="133" max="133" width="35.33203125" style="4" customWidth="1"/>
+    <col min="134" max="134" width="10.5546875" style="4" customWidth="1"/>
+    <col min="135" max="135" width="11.109375" style="4" customWidth="1"/>
+    <col min="136" max="136" width="8.88671875" style="4"/>
+    <col min="137" max="137" width="12.5546875" style="4" customWidth="1"/>
+    <col min="138" max="138" width="8.88671875" style="4"/>
+    <col min="139" max="139" width="13.88671875" style="4" customWidth="1"/>
+    <col min="140" max="140" width="16.5546875" style="4" customWidth="1"/>
+    <col min="141" max="142" width="13.21875" style="4" customWidth="1"/>
+    <col min="143" max="143" width="13" style="4" customWidth="1"/>
+    <col min="144" max="144" width="39.44140625" style="4" customWidth="1"/>
+    <col min="145" max="146" width="24.33203125" style="4" customWidth="1"/>
+    <col min="147" max="147" width="8.88671875" style="4"/>
+    <col min="148" max="148" width="11.44140625" style="4" customWidth="1"/>
+    <col min="149" max="149" width="12.5546875" style="4" customWidth="1"/>
+    <col min="150" max="150" width="8.88671875" style="4"/>
+    <col min="151" max="151" width="13.44140625" style="4" customWidth="1"/>
+    <col min="152" max="152" width="8.88671875" style="4"/>
+    <col min="153" max="153" width="10.5546875" style="4" customWidth="1"/>
+    <col min="154" max="154" width="18.88671875" style="4" customWidth="1"/>
+    <col min="155" max="155" width="34.21875" style="4" customWidth="1"/>
+    <col min="156" max="156" width="29.33203125" style="4" customWidth="1"/>
+    <col min="157" max="157" width="37.21875" style="4" customWidth="1"/>
+    <col min="158" max="158" width="23.44140625" style="4" customWidth="1"/>
+    <col min="159" max="159" width="36.44140625" style="4" customWidth="1"/>
+    <col min="160" max="160" width="8.88671875" style="4"/>
+    <col min="161" max="161" width="32.44140625" style="4" customWidth="1"/>
+    <col min="162" max="162" width="37.88671875" style="4" customWidth="1"/>
+    <col min="163" max="163" width="25.33203125" style="4" customWidth="1"/>
+    <col min="164" max="164" width="35.44140625" style="4" customWidth="1"/>
+    <col min="165" max="165" width="45.6640625" style="4" customWidth="1"/>
+    <col min="166" max="166" width="35.44140625" style="4" customWidth="1"/>
+    <col min="167" max="167" width="28.21875" style="4" customWidth="1"/>
+    <col min="168" max="168" width="39.6640625" style="4" customWidth="1"/>
+    <col min="169" max="169" width="21.44140625" style="4" customWidth="1"/>
+    <col min="170" max="170" width="37" style="4" customWidth="1"/>
+    <col min="171" max="171" width="21.44140625" style="4" customWidth="1"/>
+    <col min="172" max="172" width="37.77734375" style="4" customWidth="1"/>
+    <col min="173" max="173" width="35" style="4" customWidth="1"/>
+    <col min="174" max="174" width="15.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="11.21875" style="4" customWidth="1"/>
+    <col min="176" max="176" width="21.5546875" style="4" customWidth="1"/>
+    <col min="177" max="177" width="35.109375" style="4" customWidth="1"/>
+    <col min="178" max="178" width="17.44140625" style="4" customWidth="1"/>
+    <col min="179" max="179" width="36.21875" style="4" customWidth="1"/>
+    <col min="180" max="180" width="31.33203125" style="4" customWidth="1"/>
+    <col min="181" max="181" width="38.77734375" style="4" customWidth="1"/>
+    <col min="182" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:181" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>417</v>
       </c>
@@ -2485,402 +2508,464 @@
       <c r="AC1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="AY1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="CK1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CL1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CM1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CN1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CO1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CS1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CT1" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CU1" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="CV1" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="CW1" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CX1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CY1" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="DA1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="DB1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="DC1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="DD1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="DE1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="CR1" s="5" t="s">
+      <c r="DF1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CS1" s="5" t="s">
+      <c r="DG1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="CT1" s="5" t="s">
+      <c r="DH1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="CU1" s="5" t="s">
+      <c r="DI1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="CV1" s="5" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="CW1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="CX1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="CY1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="CZ1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="DA1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="DB1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="DC1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="DD1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="DE1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="DF1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="DG1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="DH1" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="DI1" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="DJ1" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="DK1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="DL1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="DM1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="DN1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="DO1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="DP1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="DQ1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="DR1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="DS1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="DU1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="DV1" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="DW1" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="DX1" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="DY1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="DZ1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="EA1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="EB1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="EC1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="ED1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="EE1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="EF1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="DQ1" s="5" t="s">
+      <c r="EG1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="EH1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="EI1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="EJ1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="DU1" s="5" t="s">
+      <c r="EK1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="EL1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="EM1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="EN1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="DX1" s="5" t="s">
+      <c r="EO1" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="EP1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="EQ1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="DY1" s="5" t="s">
+      <c r="ER1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="DZ1" s="5" t="s">
+      <c r="ES1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="EA1" s="5" t="s">
+      <c r="ET1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EU1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="EV1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="EW1" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="EX1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EY1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="EF1" s="5" t="s">
+      <c r="EZ1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="EG1" s="5" t="s">
+      <c r="FA1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="EH1" s="5" t="s">
+      <c r="FB1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="EI1" s="5" t="s">
+      <c r="FC1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="EJ1" s="5" t="s">
+      <c r="FD1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="EK1" s="5" t="s">
+      <c r="FE1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="EL1" s="5"/>
-      <c r="EM1" s="5" t="s">
+      <c r="FF1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="FG1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="EN1" s="5" t="s">
+      <c r="FH1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="EO1" s="5" t="s">
+      <c r="FI1" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="EP1" s="5" t="s">
+      <c r="FJ1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="EQ1" s="5" t="s">
+      <c r="FK1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="ER1" s="5" t="s">
+      <c r="FL1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="ES1" s="5" t="s">
+      <c r="FM1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="ET1" s="5" t="s">
+      <c r="FN1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="EU1" s="5" t="s">
+      <c r="FO1" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="EV1" s="5" t="s">
+      <c r="FP1" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="EW1" s="5" t="s">
+      <c r="FQ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="EX1" s="5" t="s">
+      <c r="FR1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="EY1" s="5" t="s">
+      <c r="FS1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="FT1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="FA1" s="5" t="s">
+      <c r="FU1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="FB1" s="5" t="s">
+      <c r="FV1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="FC1" s="5" t="s">
+      <c r="FW1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="FD1" s="5" t="s">
+      <c r="FX1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:161" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:181" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>419</v>
       </c>
@@ -2917,38 +3002,27 @@
       <c r="L2" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="7" t="s">
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
       <c r="AZ2" s="10"/>
       <c r="BA2" s="10"/>
       <c r="BB2" s="10"/>
@@ -2956,41 +3030,41 @@
       <c r="BD2" s="10"/>
       <c r="BE2" s="10"/>
       <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
       <c r="BN2" s="10"/>
       <c r="BO2" s="10"/>
       <c r="BP2" s="10"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="7"/>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="7"/>
-      <c r="BU2" s="7"/>
-      <c r="BV2" s="7"/>
-      <c r="BW2" s="7"/>
-      <c r="BX2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ2" s="7"/>
-      <c r="CA2" s="7"/>
-      <c r="CB2" s="7"/>
-      <c r="CC2" s="7"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="14"/>
       <c r="CD2" s="7"/>
       <c r="CE2" s="7"/>
       <c r="CF2" s="7"/>
       <c r="CG2" s="7"/>
       <c r="CH2" s="7"/>
       <c r="CI2" s="7"/>
-      <c r="CJ2" s="7"/>
-      <c r="CK2" s="7"/>
+      <c r="CJ2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="CK2" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="CL2" s="7"/>
       <c r="CM2" s="7"/>
       <c r="CN2" s="7"/>
@@ -3037,12 +3111,8 @@
       <c r="EC2" s="7"/>
       <c r="ED2" s="7"/>
       <c r="EE2" s="7"/>
-      <c r="EF2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="EG2" s="7" t="s">
-        <v>442</v>
-      </c>
+      <c r="EF2" s="7"/>
+      <c r="EG2" s="7"/>
       <c r="EH2" s="7"/>
       <c r="EI2" s="7"/>
       <c r="EJ2" s="7"/>
@@ -3059,23 +3129,47 @@
       <c r="EU2" s="7"/>
       <c r="EV2" s="7"/>
       <c r="EW2" s="7"/>
-      <c r="EX2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="EY2" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="EX2" s="7"/>
+      <c r="EY2" s="7"/>
       <c r="EZ2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="FA2" s="11" t="s">
-        <v>99</v>
+        <v>129</v>
+      </c>
+      <c r="FA2" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="FB2" s="7"/>
       <c r="FC2" s="7"/>
       <c r="FD2" s="7"/>
+      <c r="FE2" s="7"/>
+      <c r="FF2" s="7"/>
+      <c r="FG2" s="7"/>
+      <c r="FH2" s="7"/>
+      <c r="FI2" s="7"/>
+      <c r="FJ2" s="7"/>
+      <c r="FK2" s="7"/>
+      <c r="FL2" s="7"/>
+      <c r="FM2" s="7"/>
+      <c r="FN2" s="7"/>
+      <c r="FO2" s="7"/>
+      <c r="FP2" s="7"/>
+      <c r="FQ2" s="7"/>
+      <c r="FR2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="FS2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="FT2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="FU2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="FV2" s="7"/>
+      <c r="FW2" s="7"/>
+      <c r="FX2" s="7"/>
     </row>
-    <row r="3" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>419</v>
       </c>
@@ -3121,17 +3215,17 @@
       <c r="R3" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>419</v>
       </c>
@@ -3177,17 +3271,17 @@
       <c r="R4" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>419</v>
       </c>
@@ -3233,17 +3327,17 @@
       <c r="R5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>419</v>
       </c>
@@ -3289,17 +3383,17 @@
       <c r="R6" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>419</v>
       </c>
@@ -3345,17 +3439,17 @@
       <c r="R7" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AO7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AP7" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AQ7" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:181" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>419</v>
       </c>
@@ -3434,34 +3528,23 @@
       <c r="AC8" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AO8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AE8" s="8" t="s">
+      <c r="AP8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AF8" s="8" t="s">
+      <c r="AQ8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="7" t="s">
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AU8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
       <c r="AW8" s="7"/>
       <c r="AX8" s="7"/>
@@ -3483,12 +3566,8 @@
       <c r="BN8" s="7"/>
       <c r="BO8" s="7"/>
       <c r="BP8" s="7"/>
-      <c r="BQ8" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR8" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
       <c r="BS8" s="7"/>
       <c r="BT8" s="7"/>
       <c r="BU8" s="7"/>
@@ -3499,18 +3578,18 @@
       <c r="BZ8" s="7"/>
       <c r="CA8" s="7"/>
       <c r="CB8" s="7"/>
-      <c r="CC8" s="7"/>
-      <c r="CD8" s="7"/>
+      <c r="CC8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD8" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
       <c r="CG8" s="7"/>
       <c r="CH8" s="7"/>
-      <c r="CI8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="CJ8" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="CI8" s="7"/>
+      <c r="CJ8" s="7"/>
       <c r="CK8" s="7"/>
       <c r="CL8" s="7"/>
       <c r="CM8" s="7"/>
@@ -3519,16 +3598,16 @@
       <c r="CP8" s="7"/>
       <c r="CQ8" s="7"/>
       <c r="CR8" s="7"/>
-      <c r="CS8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT8" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="CS8" s="7"/>
+      <c r="CT8" s="7"/>
       <c r="CU8" s="7"/>
       <c r="CV8" s="7"/>
-      <c r="CW8" s="7"/>
-      <c r="CX8" s="7"/>
+      <c r="CW8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX8" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="CY8" s="7"/>
       <c r="CZ8" s="7"/>
       <c r="DA8" s="7"/>
@@ -3537,8 +3616,12 @@
       <c r="DD8" s="7"/>
       <c r="DE8" s="7"/>
       <c r="DF8" s="7"/>
-      <c r="DG8" s="7"/>
-      <c r="DH8" s="7"/>
+      <c r="DG8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="DH8" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="DI8" s="7"/>
       <c r="DJ8" s="7"/>
       <c r="DK8" s="7"/>
@@ -3564,19 +3647,11 @@
       <c r="EE8" s="7"/>
       <c r="EF8" s="7"/>
       <c r="EG8" s="7"/>
-      <c r="EH8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="EI8" s="7" t="s">
-        <v>443</v>
-      </c>
+      <c r="EH8" s="7"/>
+      <c r="EI8" s="7"/>
       <c r="EJ8" s="7"/>
-      <c r="EK8" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="EL8" s="7" t="s">
-        <v>474</v>
-      </c>
+      <c r="EK8" s="7"/>
+      <c r="EL8" s="7"/>
       <c r="EM8" s="7"/>
       <c r="EN8" s="7"/>
       <c r="EO8" s="7"/>
@@ -3590,17 +3665,45 @@
       <c r="EW8" s="7"/>
       <c r="EX8" s="7"/>
       <c r="EY8" s="7"/>
-      <c r="EZ8" s="7" t="s">
+      <c r="EZ8" s="7"/>
+      <c r="FA8" s="7"/>
+      <c r="FB8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="FC8" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="FD8" s="7"/>
+      <c r="FE8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="FF8" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="FG8" s="7"/>
+      <c r="FH8" s="7"/>
+      <c r="FI8" s="7"/>
+      <c r="FJ8" s="7"/>
+      <c r="FK8" s="7"/>
+      <c r="FL8" s="7"/>
+      <c r="FM8" s="7"/>
+      <c r="FN8" s="7"/>
+      <c r="FO8" s="7"/>
+      <c r="FP8" s="7"/>
+      <c r="FQ8" s="7"/>
+      <c r="FR8" s="7"/>
+      <c r="FS8" s="7"/>
+      <c r="FT8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="FA8" s="11" t="s">
+      <c r="FU8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="FB8" s="7"/>
-      <c r="FC8" s="7"/>
-      <c r="FD8" s="7"/>
+      <c r="FV8" s="7"/>
+      <c r="FW8" s="7"/>
+      <c r="FX8" s="7"/>
     </row>
-    <row r="9" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:181" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>419</v>
       </c>
@@ -3679,34 +3782,23 @@
       <c r="AC9" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AO9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="AE9" s="8" t="s">
+      <c r="AP9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AF9" s="8" t="s">
+      <c r="AQ9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="7" t="s">
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AJ9" s="7" t="s">
+      <c r="AU9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
       <c r="AV9" s="7"/>
       <c r="AW9" s="7"/>
       <c r="AX9" s="7"/>
@@ -3731,12 +3823,8 @@
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7"/>
       <c r="BS9" s="7"/>
-      <c r="BT9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU9" s="7" t="s">
-        <v>144</v>
-      </c>
+      <c r="BT9" s="7"/>
+      <c r="BU9" s="7"/>
       <c r="BV9" s="7"/>
       <c r="BW9" s="7"/>
       <c r="BX9" s="7"/>
@@ -3747,8 +3835,12 @@
       <c r="CC9" s="7"/>
       <c r="CD9" s="7"/>
       <c r="CE9" s="7"/>
-      <c r="CF9" s="7"/>
-      <c r="CG9" s="7"/>
+      <c r="CF9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG9" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="CH9" s="7"/>
       <c r="CI9" s="7"/>
       <c r="CJ9" s="7"/>
@@ -3763,12 +3855,8 @@
       <c r="CS9" s="7"/>
       <c r="CT9" s="7"/>
       <c r="CU9" s="7"/>
-      <c r="CV9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="CW9" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="CV9" s="7"/>
+      <c r="CW9" s="7"/>
       <c r="CX9" s="7"/>
       <c r="CY9" s="7"/>
       <c r="CZ9" s="7"/>
@@ -3781,8 +3869,12 @@
       <c r="DG9" s="7"/>
       <c r="DH9" s="7"/>
       <c r="DI9" s="7"/>
-      <c r="DJ9" s="7"/>
-      <c r="DK9" s="7"/>
+      <c r="DJ9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="DK9" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="DL9" s="7"/>
       <c r="DM9" s="7"/>
       <c r="DN9" s="7"/>
@@ -3801,27 +3893,15 @@
       <c r="EA9" s="7"/>
       <c r="EB9" s="7"/>
       <c r="EC9" s="7"/>
-      <c r="ED9" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="EE9" s="7" t="s">
-        <v>444</v>
-      </c>
+      <c r="ED9" s="7"/>
+      <c r="EE9" s="7"/>
       <c r="EF9" s="7"/>
       <c r="EG9" s="7"/>
-      <c r="EH9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="EI9" s="7" t="s">
-        <v>466</v>
-      </c>
+      <c r="EH9" s="7"/>
+      <c r="EI9" s="7"/>
       <c r="EJ9" s="7"/>
-      <c r="EK9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="EL9" s="7" t="s">
-        <v>445</v>
-      </c>
+      <c r="EK9" s="7"/>
+      <c r="EL9" s="7"/>
       <c r="EM9" s="7"/>
       <c r="EN9" s="7"/>
       <c r="EO9" s="7"/>
@@ -3833,23 +3913,55 @@
       <c r="EU9" s="7"/>
       <c r="EV9" s="7"/>
       <c r="EW9" s="7"/>
-      <c r="EX9" s="7"/>
-      <c r="EY9" s="7"/>
-      <c r="EZ9" s="7" t="s">
+      <c r="EX9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="EY9" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="EZ9" s="7"/>
+      <c r="FA9" s="7"/>
+      <c r="FB9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="FC9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="FD9" s="7"/>
+      <c r="FE9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="FF9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="FG9" s="7"/>
+      <c r="FH9" s="7"/>
+      <c r="FI9" s="7"/>
+      <c r="FJ9" s="7"/>
+      <c r="FK9" s="7"/>
+      <c r="FL9" s="7"/>
+      <c r="FM9" s="7"/>
+      <c r="FN9" s="7"/>
+      <c r="FO9" s="7"/>
+      <c r="FP9" s="7"/>
+      <c r="FQ9" s="7"/>
+      <c r="FR9" s="7"/>
+      <c r="FS9" s="7"/>
+      <c r="FT9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="FA9" s="11" t="s">
+      <c r="FU9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="FB9" s="7" t="s">
+      <c r="FV9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="FC9" s="4" t="s">
+      <c r="FW9" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="FD9" s="8"/>
+      <c r="FX9" s="8"/>
     </row>
-    <row r="10" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>419</v>
       </c>
@@ -3895,46 +4007,31 @@
       <c r="R10" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AO10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AE10" s="8" t="s">
+      <c r="AP10" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AF10" s="8" t="s">
+      <c r="AQ10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="7" t="s">
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AU10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AV10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AW10" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AV10" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
@@ -3942,11 +4039,15 @@
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
+      <c r="BG10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH10" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="17"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
       <c r="BN10" s="7"/>
@@ -3974,9 +4075,7 @@
       <c r="CJ10" s="7"/>
       <c r="CK10" s="7"/>
       <c r="CL10" s="7"/>
-      <c r="CM10" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="CM10" s="7"/>
       <c r="CN10" s="7"/>
       <c r="CO10" s="7"/>
       <c r="CP10" s="7"/>
@@ -3985,16 +4084,14 @@
       <c r="CS10" s="7"/>
       <c r="CT10" s="7"/>
       <c r="CU10" s="7"/>
-      <c r="CV10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="CW10" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="CV10" s="7"/>
+      <c r="CW10" s="7"/>
       <c r="CX10" s="7"/>
       <c r="CY10" s="7"/>
       <c r="CZ10" s="7"/>
-      <c r="DA10" s="7"/>
+      <c r="DA10" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="DB10" s="7"/>
       <c r="DC10" s="7"/>
       <c r="DD10" s="7"/>
@@ -4003,8 +4100,12 @@
       <c r="DG10" s="7"/>
       <c r="DH10" s="7"/>
       <c r="DI10" s="7"/>
-      <c r="DJ10" s="7"/>
-      <c r="DK10" s="7"/>
+      <c r="DJ10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="DK10" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="DL10" s="7"/>
       <c r="DM10" s="7"/>
       <c r="DN10" s="7"/>
@@ -4025,53 +4126,73 @@
       <c r="EC10" s="7"/>
       <c r="ED10" s="7"/>
       <c r="EE10" s="7"/>
-      <c r="EF10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="EG10" s="7" t="s">
-        <v>464</v>
-      </c>
+      <c r="EF10" s="7"/>
+      <c r="EG10" s="7"/>
       <c r="EH10" s="7"/>
       <c r="EI10" s="7"/>
       <c r="EJ10" s="7"/>
-      <c r="EK10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="EL10" s="7" t="s">
-        <v>451</v>
-      </c>
+      <c r="EK10" s="7"/>
+      <c r="EL10" s="7"/>
       <c r="EM10" s="7"/>
       <c r="EN10" s="7"/>
       <c r="EO10" s="7"/>
       <c r="EP10" s="7"/>
       <c r="EQ10" s="7"/>
       <c r="ER10" s="7"/>
-      <c r="ES10" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="ET10" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="EU10" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="EV10" s="7" t="s">
-        <v>459</v>
-      </c>
+      <c r="ES10" s="7"/>
+      <c r="ET10" s="7"/>
+      <c r="EU10" s="7"/>
+      <c r="EV10" s="7"/>
       <c r="EW10" s="7"/>
       <c r="EX10" s="7"/>
       <c r="EY10" s="7"/>
       <c r="EZ10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="FA10" s="11" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+      <c r="FA10" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="FB10" s="7"/>
       <c r="FC10" s="7"/>
       <c r="FD10" s="7"/>
+      <c r="FE10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="FF10" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="FG10" s="7"/>
+      <c r="FH10" s="7"/>
+      <c r="FI10" s="7"/>
+      <c r="FJ10" s="7"/>
+      <c r="FK10" s="7"/>
+      <c r="FL10" s="7"/>
+      <c r="FM10" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="FN10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="FO10" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="FP10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="FQ10" s="7"/>
+      <c r="FR10" s="7"/>
+      <c r="FS10" s="7"/>
+      <c r="FT10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="FU10" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="FV10" s="7"/>
+      <c r="FW10" s="7"/>
+      <c r="FX10" s="7"/>
     </row>
-    <row r="11" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:181" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>419</v>
       </c>
@@ -4117,38 +4238,27 @@
       <c r="R11" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AO11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="AE11" s="8" t="s">
+      <c r="AP11" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AQ11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="7" t="s">
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="AJ11" s="18" t="s">
+      <c r="AU11" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
       <c r="AZ11" s="18"/>
       <c r="BA11" s="18"/>
       <c r="BB11" s="18"/>
@@ -4156,28 +4266,28 @@
       <c r="BD11" s="18"/>
       <c r="BE11" s="18"/>
       <c r="BF11" s="18"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
-      <c r="BK11" s="18"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
       <c r="BL11" s="18"/>
       <c r="BM11" s="18"/>
       <c r="BN11" s="18"/>
       <c r="BO11" s="18"/>
       <c r="BP11" s="18"/>
-      <c r="BQ11" s="7"/>
-      <c r="BR11" s="7"/>
-      <c r="BS11" s="7"/>
-      <c r="BT11" s="7"/>
-      <c r="BU11" s="7"/>
-      <c r="BV11" s="7"/>
-      <c r="BW11" s="7"/>
-      <c r="BX11" s="7"/>
-      <c r="BY11" s="7"/>
-      <c r="BZ11" s="7"/>
-      <c r="CA11" s="7"/>
-      <c r="CB11" s="7"/>
+      <c r="BQ11" s="18"/>
+      <c r="BR11" s="18"/>
+      <c r="BS11" s="18"/>
+      <c r="BT11" s="18"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="18"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="18"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="18"/>
       <c r="CC11" s="7"/>
       <c r="CD11" s="7"/>
       <c r="CE11" s="7"/>
@@ -4209,71 +4319,91 @@
       <c r="DE11" s="7"/>
       <c r="DF11" s="7"/>
       <c r="DG11" s="7"/>
-      <c r="DH11" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="DH11" s="7"/>
       <c r="DI11" s="7"/>
       <c r="DJ11" s="7"/>
       <c r="DK11" s="7"/>
       <c r="DL11" s="7"/>
-      <c r="DM11" s="11"/>
-      <c r="DN11" s="11"/>
-      <c r="DO11" s="11"/>
-      <c r="DP11" s="11"/>
-      <c r="DQ11" s="11"/>
-      <c r="DR11" s="17"/>
-      <c r="DS11" s="17"/>
-      <c r="DT11" s="17"/>
-      <c r="DU11" s="17"/>
-      <c r="DV11" s="17"/>
-      <c r="DW11" s="17"/>
-      <c r="DX11" s="17"/>
-      <c r="DY11" s="17"/>
-      <c r="DZ11" s="17"/>
-      <c r="EA11" s="17"/>
-      <c r="EB11" s="17"/>
-      <c r="EC11" s="17"/>
-      <c r="ED11" s="7"/>
-      <c r="EE11" s="7"/>
-      <c r="EF11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="EG11" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="EH11" s="7"/>
-      <c r="EI11" s="7"/>
-      <c r="EJ11" s="7"/>
-      <c r="EK11" s="7"/>
-      <c r="EL11" s="7"/>
-      <c r="EM11" s="7"/>
-      <c r="EN11" s="22"/>
-      <c r="EO11" s="22"/>
-      <c r="EP11" s="22"/>
-      <c r="EQ11" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="ER11" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="ES11" s="7"/>
-      <c r="ET11" s="7"/>
-      <c r="EU11" s="7"/>
-      <c r="EV11" s="7"/>
-      <c r="EW11" s="7"/>
+      <c r="DM11" s="7"/>
+      <c r="DN11" s="7"/>
+      <c r="DO11" s="7"/>
+      <c r="DP11" s="7"/>
+      <c r="DQ11" s="7"/>
+      <c r="DR11" s="7"/>
+      <c r="DS11" s="7"/>
+      <c r="DT11" s="7"/>
+      <c r="DU11" s="7"/>
+      <c r="DV11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DW11" s="7"/>
+      <c r="DX11" s="7"/>
+      <c r="DY11" s="7"/>
+      <c r="DZ11" s="7"/>
+      <c r="EA11" s="7"/>
+      <c r="EB11" s="7"/>
+      <c r="EC11" s="11"/>
+      <c r="ED11" s="11"/>
+      <c r="EE11" s="11"/>
+      <c r="EF11" s="11"/>
+      <c r="EG11" s="11"/>
+      <c r="EH11" s="17"/>
+      <c r="EI11" s="17"/>
+      <c r="EJ11" s="17"/>
+      <c r="EK11" s="17"/>
+      <c r="EL11" s="17"/>
+      <c r="EM11" s="17"/>
+      <c r="EN11" s="17"/>
+      <c r="EO11" s="17"/>
+      <c r="EP11" s="17"/>
+      <c r="EQ11" s="17"/>
+      <c r="ER11" s="17"/>
+      <c r="ES11" s="17"/>
+      <c r="ET11" s="17"/>
+      <c r="EU11" s="17"/>
+      <c r="EV11" s="17"/>
+      <c r="EW11" s="17"/>
       <c r="EX11" s="7"/>
       <c r="EY11" s="7"/>
       <c r="EZ11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="FA11" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="FA11" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="FB11" s="7"/>
       <c r="FC11" s="7"/>
       <c r="FD11" s="7"/>
+      <c r="FE11" s="7"/>
+      <c r="FF11" s="7"/>
+      <c r="FG11" s="7"/>
+      <c r="FH11" s="22"/>
+      <c r="FI11" s="22"/>
+      <c r="FJ11" s="22"/>
+      <c r="FK11" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="FL11" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="FM11" s="7"/>
+      <c r="FN11" s="7"/>
+      <c r="FO11" s="7"/>
+      <c r="FP11" s="7"/>
+      <c r="FQ11" s="7"/>
+      <c r="FR11" s="7"/>
+      <c r="FS11" s="7"/>
+      <c r="FT11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="FU11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="FV11" s="7"/>
+      <c r="FW11" s="7"/>
+      <c r="FX11" s="7"/>
     </row>
-    <row r="12" spans="1:161" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:181" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>419</v>
       </c>
@@ -4319,34 +4449,23 @@
       <c r="R12" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="AD12" s="7" t="s">
+      <c r="AO12" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AE12" s="8" t="s">
+      <c r="AP12" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="AF12" s="8" t="s">
+      <c r="AQ12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="7" t="s">
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="AJ12" s="7" t="s">
+      <c r="AU12" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="7"/>
@@ -4377,9 +4496,7 @@
       <c r="BW12" s="7"/>
       <c r="BX12" s="7"/>
       <c r="BY12" s="7"/>
-      <c r="BZ12" s="7">
-        <v>4</v>
-      </c>
+      <c r="BZ12" s="7"/>
       <c r="CA12" s="7"/>
       <c r="CB12" s="7"/>
       <c r="CC12" s="7"/>
@@ -4391,7 +4508,9 @@
       <c r="CI12" s="7"/>
       <c r="CJ12" s="7"/>
       <c r="CK12" s="7"/>
-      <c r="CL12" s="7"/>
+      <c r="CL12" s="7">
+        <v>4</v>
+      </c>
       <c r="CM12" s="7"/>
       <c r="CN12" s="7"/>
       <c r="CO12" s="7"/>
@@ -4400,57 +4519,53 @@
       <c r="CR12" s="7"/>
       <c r="CS12" s="7"/>
       <c r="CT12" s="7"/>
-      <c r="CU12" s="7">
-        <v>9</v>
-      </c>
+      <c r="CU12" s="7"/>
       <c r="CV12" s="7"/>
       <c r="CW12" s="7"/>
       <c r="CX12" s="7"/>
       <c r="CY12" s="7"/>
       <c r="CZ12" s="7"/>
-      <c r="DA12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="DB12" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="DC12" s="17"/>
-      <c r="DD12" s="17"/>
-      <c r="DE12" s="17"/>
-      <c r="DF12" s="17"/>
-      <c r="DG12" s="17"/>
-      <c r="DH12" s="17"/>
-      <c r="DI12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="17"/>
+      <c r="DA12" s="7"/>
+      <c r="DB12" s="7"/>
+      <c r="DC12" s="7"/>
+      <c r="DD12" s="7"/>
+      <c r="DE12" s="7"/>
+      <c r="DF12" s="7"/>
+      <c r="DG12" s="7"/>
+      <c r="DH12" s="7"/>
+      <c r="DI12" s="7">
+        <v>9</v>
+      </c>
+      <c r="DJ12" s="7"/>
+      <c r="DK12" s="7"/>
       <c r="DL12" s="7"/>
       <c r="DM12" s="7"/>
       <c r="DN12" s="7"/>
-      <c r="DO12" s="7"/>
-      <c r="DP12" s="7"/>
-      <c r="DQ12" s="7"/>
-      <c r="DR12" s="7"/>
-      <c r="DS12" s="7"/>
-      <c r="DT12" s="7"/>
-      <c r="DU12" s="7"/>
-      <c r="DV12" s="7"/>
-      <c r="DW12" s="7"/>
-      <c r="DX12" s="7"/>
-      <c r="DY12" s="7"/>
-      <c r="DZ12" s="7"/>
-      <c r="EA12" s="7"/>
+      <c r="DO12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="DP12" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="DQ12" s="17"/>
+      <c r="DR12" s="17"/>
+      <c r="DS12" s="17"/>
+      <c r="DT12" s="17"/>
+      <c r="DU12" s="17"/>
+      <c r="DV12" s="17"/>
+      <c r="DW12" s="17"/>
+      <c r="DX12" s="17"/>
+      <c r="DY12" s="17"/>
+      <c r="DZ12" s="17"/>
+      <c r="EA12" s="17"/>
       <c r="EB12" s="7"/>
       <c r="EC12" s="7"/>
       <c r="ED12" s="7"/>
       <c r="EE12" s="7"/>
       <c r="EF12" s="7"/>
       <c r="EG12" s="7"/>
-      <c r="EH12" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="EI12" s="7" t="s">
-        <v>467</v>
-      </c>
+      <c r="EH12" s="7"/>
+      <c r="EI12" s="7"/>
       <c r="EJ12" s="7"/>
       <c r="EK12" s="7"/>
       <c r="EL12" s="7"/>
@@ -4467,17 +4582,41 @@
       <c r="EW12" s="7"/>
       <c r="EX12" s="7"/>
       <c r="EY12" s="7"/>
-      <c r="EZ12" s="7" t="s">
+      <c r="EZ12" s="7"/>
+      <c r="FA12" s="7"/>
+      <c r="FB12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="FC12" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="FD12" s="7"/>
+      <c r="FE12" s="7"/>
+      <c r="FF12" s="7"/>
+      <c r="FG12" s="7"/>
+      <c r="FH12" s="7"/>
+      <c r="FI12" s="7"/>
+      <c r="FJ12" s="7"/>
+      <c r="FK12" s="7"/>
+      <c r="FL12" s="7"/>
+      <c r="FM12" s="7"/>
+      <c r="FN12" s="7"/>
+      <c r="FO12" s="7"/>
+      <c r="FP12" s="7"/>
+      <c r="FQ12" s="7"/>
+      <c r="FR12" s="7"/>
+      <c r="FS12" s="7"/>
+      <c r="FT12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="FA12" s="11" t="s">
+      <c r="FU12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="FB12" s="7"/>
-      <c r="FC12" s="7"/>
-      <c r="FD12" s="7"/>
+      <c r="FV12" s="7"/>
+      <c r="FW12" s="7"/>
+      <c r="FX12" s="7"/>
     </row>
-    <row r="13" spans="1:161" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:181" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>419</v>
       </c>
@@ -4523,34 +4662,23 @@
       <c r="R13" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="AD13" s="7" t="s">
+      <c r="AO13" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" s="8" t="s">
+      <c r="AP13" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="AF13" s="8" t="s">
+      <c r="AQ13" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="7" t="s">
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AJ13" s="7" t="s">
+      <c r="AU13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="7"/>
@@ -4574,9 +4702,7 @@
       <c r="BP13" s="7"/>
       <c r="BQ13" s="7"/>
       <c r="BR13" s="7"/>
-      <c r="BS13" s="7">
-        <v>3</v>
-      </c>
+      <c r="BS13" s="7"/>
       <c r="BT13" s="7"/>
       <c r="BU13" s="7"/>
       <c r="BV13" s="7"/>
@@ -4586,11 +4712,11 @@
       <c r="BZ13" s="7"/>
       <c r="CA13" s="7"/>
       <c r="CB13" s="7"/>
-      <c r="CC13" s="7">
-        <v>6</v>
-      </c>
+      <c r="CC13" s="7"/>
       <c r="CD13" s="7"/>
-      <c r="CE13" s="7"/>
+      <c r="CE13" s="7">
+        <v>3</v>
+      </c>
       <c r="CF13" s="7"/>
       <c r="CG13" s="7"/>
       <c r="CH13" s="7"/>
@@ -4599,10 +4725,10 @@
       <c r="CK13" s="7"/>
       <c r="CL13" s="7"/>
       <c r="CM13" s="7"/>
-      <c r="CN13" s="7">
-        <v>3</v>
-      </c>
-      <c r="CO13" s="7"/>
+      <c r="CN13" s="7"/>
+      <c r="CO13" s="7">
+        <v>6</v>
+      </c>
       <c r="CP13" s="7"/>
       <c r="CQ13" s="7"/>
       <c r="CR13" s="7"/>
@@ -4613,11 +4739,11 @@
       <c r="CW13" s="7"/>
       <c r="CX13" s="7"/>
       <c r="CY13" s="7"/>
-      <c r="CZ13" s="7">
-        <v>6</v>
-      </c>
+      <c r="CZ13" s="7"/>
       <c r="DA13" s="7"/>
-      <c r="DB13" s="7"/>
+      <c r="DB13" s="7">
+        <v>3</v>
+      </c>
       <c r="DC13" s="7"/>
       <c r="DD13" s="7"/>
       <c r="DE13" s="7"/>
@@ -4629,7 +4755,9 @@
       <c r="DK13" s="7"/>
       <c r="DL13" s="7"/>
       <c r="DM13" s="7"/>
-      <c r="DN13" s="7"/>
+      <c r="DN13" s="7">
+        <v>6</v>
+      </c>
       <c r="DO13" s="7"/>
       <c r="DP13" s="7"/>
       <c r="DQ13" s="7"/>
@@ -4647,12 +4775,8 @@
       <c r="EC13" s="7"/>
       <c r="ED13" s="7"/>
       <c r="EE13" s="7"/>
-      <c r="EF13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="EG13" s="7" t="s">
-        <v>468</v>
-      </c>
+      <c r="EF13" s="7"/>
+      <c r="EG13" s="7"/>
       <c r="EH13" s="7"/>
       <c r="EI13" s="7"/>
       <c r="EJ13" s="7"/>
@@ -4672,16 +4796,40 @@
       <c r="EX13" s="7"/>
       <c r="EY13" s="7"/>
       <c r="EZ13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="FA13" s="11" t="s">
-        <v>170</v>
+        <v>190</v>
+      </c>
+      <c r="FA13" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="FB13" s="7"/>
       <c r="FC13" s="7"/>
       <c r="FD13" s="7"/>
+      <c r="FE13" s="7"/>
+      <c r="FF13" s="7"/>
+      <c r="FG13" s="7"/>
+      <c r="FH13" s="7"/>
+      <c r="FI13" s="7"/>
+      <c r="FJ13" s="7"/>
+      <c r="FK13" s="7"/>
+      <c r="FL13" s="7"/>
+      <c r="FM13" s="7"/>
+      <c r="FN13" s="7"/>
+      <c r="FO13" s="7"/>
+      <c r="FP13" s="7"/>
+      <c r="FQ13" s="7"/>
+      <c r="FR13" s="7"/>
+      <c r="FS13" s="7"/>
+      <c r="FT13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="FV13" s="7"/>
+      <c r="FW13" s="7"/>
+      <c r="FX13" s="7"/>
     </row>
-    <row r="14" spans="1:161" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:181" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>419</v>
       </c>
@@ -4760,34 +4908,23 @@
       <c r="AC14" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="AD14" s="7" t="s">
+      <c r="AO14" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AE14" s="8" t="s">
+      <c r="AP14" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="AF14" s="8" t="s">
+      <c r="AQ14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="7" t="s">
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AJ14" s="7" t="s">
+      <c r="AU14" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="7"/>
@@ -4839,9 +4976,7 @@
       <c r="CR14" s="7"/>
       <c r="CS14" s="7"/>
       <c r="CT14" s="7"/>
-      <c r="CU14" s="7">
-        <v>9</v>
-      </c>
+      <c r="CU14" s="7"/>
       <c r="CV14" s="7"/>
       <c r="CW14" s="7"/>
       <c r="CX14" s="7"/>
@@ -4855,7 +4990,9 @@
       <c r="DF14" s="7"/>
       <c r="DG14" s="7"/>
       <c r="DH14" s="7"/>
-      <c r="DI14" s="7"/>
+      <c r="DI14" s="7">
+        <v>9</v>
+      </c>
       <c r="DJ14" s="7"/>
       <c r="DK14" s="7"/>
       <c r="DL14" s="7"/>
@@ -4878,27 +5015,17 @@
       <c r="EC14" s="7"/>
       <c r="ED14" s="7"/>
       <c r="EE14" s="7"/>
-      <c r="EF14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="EG14" s="7" t="s">
-        <v>472</v>
-      </c>
+      <c r="EF14" s="7"/>
+      <c r="EG14" s="7"/>
       <c r="EH14" s="7"/>
       <c r="EI14" s="7"/>
       <c r="EJ14" s="7"/>
-      <c r="EK14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="EL14" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="EO14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP14" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="EK14" s="7"/>
+      <c r="EL14" s="7"/>
+      <c r="EM14" s="7"/>
+      <c r="EN14" s="7"/>
+      <c r="EO14" s="7"/>
+      <c r="EP14" s="7"/>
       <c r="EQ14" s="7"/>
       <c r="ER14" s="7"/>
       <c r="ES14" s="7"/>
@@ -4909,16 +5036,46 @@
       <c r="EX14" s="7"/>
       <c r="EY14" s="7"/>
       <c r="EZ14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="FA14" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="FA14" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="FB14" s="7"/>
       <c r="FC14" s="7"/>
       <c r="FD14" s="7"/>
+      <c r="FE14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="FF14" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="FI14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="FJ14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="FK14" s="7"/>
+      <c r="FL14" s="7"/>
+      <c r="FM14" s="7"/>
+      <c r="FN14" s="7"/>
+      <c r="FO14" s="7"/>
+      <c r="FP14" s="7"/>
+      <c r="FQ14" s="7"/>
+      <c r="FR14" s="7"/>
+      <c r="FS14" s="7"/>
+      <c r="FT14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="FU14" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="FV14" s="7"/>
+      <c r="FW14" s="7"/>
+      <c r="FX14" s="7"/>
     </row>
-    <row r="15" spans="1:161" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:181" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>419</v>
       </c>
@@ -4997,38 +5154,27 @@
       <c r="AC15" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="AD15" s="7" t="s">
+      <c r="AO15" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AE15" s="17" t="s">
+      <c r="AP15" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="AF15" s="7" t="s">
+      <c r="AQ15" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7" t="s">
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="AJ15" s="17" t="s">
+      <c r="AU15" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="7"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
       <c r="AZ15" s="17"/>
       <c r="BA15" s="17"/>
       <c r="BB15" s="17"/>
@@ -5036,28 +5182,28 @@
       <c r="BD15" s="17"/>
       <c r="BE15" s="17"/>
       <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
       <c r="BL15" s="17"/>
       <c r="BM15" s="17"/>
       <c r="BN15" s="17"/>
       <c r="BO15" s="17"/>
       <c r="BP15" s="17"/>
-      <c r="BQ15" s="7"/>
-      <c r="BR15" s="7"/>
-      <c r="BS15" s="7"/>
-      <c r="BT15" s="7"/>
-      <c r="BU15" s="7"/>
-      <c r="BV15" s="7"/>
-      <c r="BW15" s="7"/>
-      <c r="BX15" s="7"/>
-      <c r="BY15" s="7"/>
-      <c r="BZ15" s="7"/>
-      <c r="CA15" s="7"/>
-      <c r="CB15" s="7"/>
+      <c r="BQ15" s="17"/>
+      <c r="BR15" s="17"/>
+      <c r="BS15" s="17"/>
+      <c r="BT15" s="17"/>
+      <c r="BU15" s="17"/>
+      <c r="BV15" s="17"/>
+      <c r="BW15" s="17"/>
+      <c r="BX15" s="17"/>
+      <c r="BY15" s="17"/>
+      <c r="BZ15" s="17"/>
+      <c r="CA15" s="17"/>
+      <c r="CB15" s="17"/>
       <c r="CC15" s="7"/>
       <c r="CD15" s="7"/>
       <c r="CE15" s="7"/>
@@ -5115,19 +5261,11 @@
       <c r="EE15" s="7"/>
       <c r="EF15" s="7"/>
       <c r="EG15" s="7"/>
-      <c r="EH15" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="EI15" s="7" t="s">
-        <v>476</v>
-      </c>
+      <c r="EH15" s="7"/>
+      <c r="EI15" s="7"/>
       <c r="EJ15" s="7"/>
-      <c r="EK15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="EL15" s="7" t="s">
-        <v>477</v>
-      </c>
+      <c r="EK15" s="7"/>
+      <c r="EL15" s="7"/>
       <c r="EM15" s="7"/>
       <c r="EN15" s="7"/>
       <c r="EO15" s="7"/>
@@ -5141,17 +5279,45 @@
       <c r="EW15" s="7"/>
       <c r="EX15" s="7"/>
       <c r="EY15" s="7"/>
-      <c r="EZ15" s="7" t="s">
+      <c r="EZ15" s="7"/>
+      <c r="FA15" s="7"/>
+      <c r="FB15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="FC15" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="FD15" s="7"/>
+      <c r="FE15" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="FF15" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="FG15" s="7"/>
+      <c r="FH15" s="7"/>
+      <c r="FI15" s="7"/>
+      <c r="FJ15" s="7"/>
+      <c r="FK15" s="7"/>
+      <c r="FL15" s="7"/>
+      <c r="FM15" s="7"/>
+      <c r="FN15" s="7"/>
+      <c r="FO15" s="7"/>
+      <c r="FP15" s="7"/>
+      <c r="FQ15" s="7"/>
+      <c r="FR15" s="7"/>
+      <c r="FS15" s="7"/>
+      <c r="FT15" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="FA15" s="11" t="s">
+      <c r="FU15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="FB15" s="7"/>
-      <c r="FC15" s="7"/>
-      <c r="FD15" s="7"/>
+      <c r="FV15" s="7"/>
+      <c r="FW15" s="7"/>
+      <c r="FX15" s="7"/>
     </row>
-    <row r="16" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:181" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>419</v>
       </c>
@@ -5230,34 +5396,23 @@
       <c r="AC16" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="AD16" s="7" t="s">
+      <c r="AO16" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="AE16" s="17" t="s">
+      <c r="AP16" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AF16" s="7" t="s">
+      <c r="AQ16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="7"/>
+      <c r="AT16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU16" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
@@ -5268,12 +5423,8 @@
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
       <c r="BE16" s="7"/>
-      <c r="BF16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG16" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
       <c r="BI16" s="7"/>
       <c r="BJ16" s="7"/>
@@ -5284,8 +5435,12 @@
       <c r="BO16" s="7"/>
       <c r="BP16" s="7"/>
       <c r="BQ16" s="7"/>
-      <c r="BR16" s="7"/>
-      <c r="BS16" s="7"/>
+      <c r="BR16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS16" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BT16" s="7"/>
       <c r="BU16" s="7"/>
       <c r="BV16" s="7"/>
@@ -5350,21 +5505,13 @@
       <c r="EC16" s="7"/>
       <c r="ED16" s="7"/>
       <c r="EE16" s="7"/>
-      <c r="EF16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="EG16" s="7" t="s">
-        <v>478</v>
-      </c>
+      <c r="EF16" s="7"/>
+      <c r="EG16" s="7"/>
       <c r="EH16" s="7"/>
       <c r="EI16" s="7"/>
       <c r="EJ16" s="7"/>
-      <c r="EK16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="EL16" s="7" t="s">
-        <v>479</v>
-      </c>
+      <c r="EK16" s="7"/>
+      <c r="EL16" s="7"/>
       <c r="EM16" s="7"/>
       <c r="EN16" s="7"/>
       <c r="EO16" s="7"/>
@@ -5379,19 +5526,47 @@
       <c r="EX16" s="7"/>
       <c r="EY16" s="7"/>
       <c r="EZ16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="FA16" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="FB16" s="7"/>
+      <c r="FC16" s="7"/>
+      <c r="FD16" s="7"/>
+      <c r="FE16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="FF16" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="FG16" s="7"/>
+      <c r="FH16" s="7"/>
+      <c r="FI16" s="7"/>
+      <c r="FJ16" s="7"/>
+      <c r="FK16" s="7"/>
+      <c r="FL16" s="7"/>
+      <c r="FM16" s="7"/>
+      <c r="FN16" s="7"/>
+      <c r="FO16" s="7"/>
+      <c r="FP16" s="7"/>
+      <c r="FQ16" s="7"/>
+      <c r="FR16" s="7"/>
+      <c r="FS16" s="7"/>
+      <c r="FT16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="FA16" s="11" t="s">
+      <c r="FU16" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="FB16" s="4" t="s">
+      <c r="FV16" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="FC16" s="4" t="s">
+      <c r="FW16" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="17" spans="1:161" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>419</v>
       </c>
@@ -5473,7 +5648,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="1:161" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:181" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>419</v>
       </c>
@@ -5549,34 +5724,23 @@
       <c r="AC18" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="AD18" s="23" t="s">
+      <c r="AO18" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="AE18" s="24" t="s">
+      <c r="AP18" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="AF18" s="23" t="s">
+      <c r="AQ18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ18" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="23"/>
       <c r="AR18" s="23"/>
       <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
-      <c r="AU18" s="23"/>
+      <c r="AT18" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU18" s="23" t="s">
+        <v>236</v>
+      </c>
       <c r="AV18" s="23"/>
       <c r="AW18" s="23"/>
       <c r="AX18" s="23"/>
@@ -5642,15 +5806,9 @@
       <c r="DF18" s="23"/>
       <c r="DG18" s="23"/>
       <c r="DH18" s="23"/>
-      <c r="DI18" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ18" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="DK18" s="23" t="s">
-        <v>490</v>
-      </c>
+      <c r="DI18" s="23"/>
+      <c r="DJ18" s="23"/>
+      <c r="DK18" s="23"/>
       <c r="DL18" s="23"/>
       <c r="DM18" s="23"/>
       <c r="DN18" s="23"/>
@@ -5662,9 +5820,15 @@
       <c r="DT18" s="23"/>
       <c r="DU18" s="23"/>
       <c r="DV18" s="23"/>
-      <c r="DW18" s="23"/>
-      <c r="DX18" s="23"/>
-      <c r="DY18" s="23"/>
+      <c r="DW18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="DX18" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="DY18" s="23" t="s">
+        <v>490</v>
+      </c>
       <c r="DZ18" s="23"/>
       <c r="EA18" s="23"/>
       <c r="EB18" s="23"/>
@@ -5676,12 +5840,8 @@
       <c r="EH18" s="23"/>
       <c r="EI18" s="23"/>
       <c r="EJ18" s="23"/>
-      <c r="EK18" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="EL18" s="23" t="s">
-        <v>491</v>
-      </c>
+      <c r="EK18" s="23"/>
+      <c r="EL18" s="23"/>
       <c r="EM18" s="23"/>
       <c r="EN18" s="23"/>
       <c r="EO18" s="23"/>
@@ -5695,22 +5855,46 @@
       <c r="EW18" s="23"/>
       <c r="EX18" s="23"/>
       <c r="EY18" s="23"/>
-      <c r="EZ18" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="FA18" s="20" t="s">
-        <v>237</v>
-      </c>
+      <c r="EZ18" s="23"/>
+      <c r="FA18" s="23"/>
       <c r="FB18" s="23"/>
       <c r="FC18" s="23"/>
-      <c r="FD18" s="23" t="s">
+      <c r="FD18" s="23"/>
+      <c r="FE18" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="FF18" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="FG18" s="23"/>
+      <c r="FH18" s="23"/>
+      <c r="FI18" s="23"/>
+      <c r="FJ18" s="23"/>
+      <c r="FK18" s="23"/>
+      <c r="FL18" s="23"/>
+      <c r="FM18" s="23"/>
+      <c r="FN18" s="23"/>
+      <c r="FO18" s="23"/>
+      <c r="FP18" s="23"/>
+      <c r="FQ18" s="23"/>
+      <c r="FR18" s="23"/>
+      <c r="FS18" s="23"/>
+      <c r="FT18" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="FU18" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="FV18" s="23"/>
+      <c r="FW18" s="23"/>
+      <c r="FX18" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="FE18" s="19" t="s">
+      <c r="FY18" s="19" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>419</v>
       </c>
@@ -5786,38 +5970,27 @@
       <c r="AC19" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="AD19" s="7" t="s">
+      <c r="AO19" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AE19" s="17" t="s">
+      <c r="AP19" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="AF19" s="7" t="s">
+      <c r="AQ19" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG19" s="7" t="s">
+      <c r="AR19" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="AH19" s="7" t="s">
+      <c r="AS19" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="AI19" s="7" t="s">
+      <c r="AT19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="AJ19" s="7" t="s">
+      <c r="AU19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
       <c r="AW19" s="7"/>
       <c r="AX19" s="7"/>
@@ -5837,12 +6010,8 @@
       <c r="BL19" s="7"/>
       <c r="BM19" s="7"/>
       <c r="BN19" s="7"/>
-      <c r="BO19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP19" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
       <c r="BQ19" s="7"/>
       <c r="BR19" s="7"/>
       <c r="BS19" s="7"/>
@@ -5853,8 +6022,12 @@
       <c r="BX19" s="7"/>
       <c r="BY19" s="7"/>
       <c r="BZ19" s="7"/>
-      <c r="CA19" s="7"/>
-      <c r="CB19" s="7"/>
+      <c r="CA19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB19" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="CC19" s="7"/>
       <c r="CD19" s="7"/>
       <c r="CE19" s="7"/>
@@ -5891,65 +6064,85 @@
       <c r="DJ19" s="7"/>
       <c r="DK19" s="7"/>
       <c r="DL19" s="7"/>
-      <c r="DM19" s="11"/>
-      <c r="DN19" s="11"/>
-      <c r="DO19" s="11"/>
-      <c r="DP19" s="11"/>
-      <c r="DQ19" s="11"/>
-      <c r="DR19" s="11"/>
-      <c r="DS19" s="11"/>
-      <c r="DT19" s="11"/>
-      <c r="DU19" s="11"/>
-      <c r="DV19" s="11"/>
-      <c r="DW19" s="11"/>
-      <c r="DX19" s="11"/>
-      <c r="DY19" s="11"/>
-      <c r="DZ19" s="11"/>
-      <c r="EA19" s="11"/>
-      <c r="EB19" s="11"/>
+      <c r="DM19" s="7"/>
+      <c r="DN19" s="7"/>
+      <c r="DO19" s="7"/>
+      <c r="DP19" s="7"/>
+      <c r="DQ19" s="7"/>
+      <c r="DR19" s="7"/>
+      <c r="DS19" s="7"/>
+      <c r="DT19" s="7"/>
+      <c r="DU19" s="7"/>
+      <c r="DV19" s="7"/>
+      <c r="DW19" s="7"/>
+      <c r="DX19" s="7"/>
+      <c r="DY19" s="7"/>
+      <c r="DZ19" s="7"/>
+      <c r="EA19" s="7"/>
+      <c r="EB19" s="7"/>
       <c r="EC19" s="11"/>
-      <c r="ED19" s="7"/>
-      <c r="EE19" s="7"/>
-      <c r="EF19" s="7"/>
-      <c r="EG19" s="7"/>
-      <c r="EH19" s="7"/>
-      <c r="EI19" s="7"/>
-      <c r="EJ19" s="7"/>
-      <c r="EK19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="EL19" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="EM19" s="7"/>
-      <c r="EN19" s="7"/>
-      <c r="EO19" s="7"/>
-      <c r="EP19" s="7"/>
-      <c r="EQ19" s="7"/>
-      <c r="ER19" s="7"/>
-      <c r="ES19" s="7"/>
-      <c r="ET19" s="7"/>
-      <c r="EU19" s="7"/>
-      <c r="EV19" s="7"/>
-      <c r="EW19" s="7"/>
+      <c r="ED19" s="11"/>
+      <c r="EE19" s="11"/>
+      <c r="EF19" s="11"/>
+      <c r="EG19" s="11"/>
+      <c r="EH19" s="11"/>
+      <c r="EI19" s="11"/>
+      <c r="EJ19" s="11"/>
+      <c r="EK19" s="11"/>
+      <c r="EL19" s="11"/>
+      <c r="EM19" s="11"/>
+      <c r="EN19" s="11"/>
+      <c r="EO19" s="11"/>
+      <c r="EP19" s="11"/>
+      <c r="EQ19" s="11"/>
+      <c r="ER19" s="11"/>
+      <c r="ES19" s="11"/>
+      <c r="ET19" s="11"/>
+      <c r="EU19" s="11"/>
+      <c r="EV19" s="11"/>
+      <c r="EW19" s="11"/>
       <c r="EX19" s="7"/>
       <c r="EY19" s="7"/>
-      <c r="EZ19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="FA19" s="17" t="s">
-        <v>237</v>
-      </c>
+      <c r="EZ19" s="7"/>
+      <c r="FA19" s="7"/>
       <c r="FB19" s="7"/>
       <c r="FC19" s="7"/>
-      <c r="FD19" s="7" t="s">
+      <c r="FD19" s="7"/>
+      <c r="FE19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="FF19" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="FG19" s="7"/>
+      <c r="FH19" s="7"/>
+      <c r="FI19" s="7"/>
+      <c r="FJ19" s="7"/>
+      <c r="FK19" s="7"/>
+      <c r="FL19" s="7"/>
+      <c r="FM19" s="7"/>
+      <c r="FN19" s="7"/>
+      <c r="FO19" s="7"/>
+      <c r="FP19" s="7"/>
+      <c r="FQ19" s="7"/>
+      <c r="FR19" s="7"/>
+      <c r="FS19" s="7"/>
+      <c r="FT19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="FU19" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="FV19" s="7"/>
+      <c r="FW19" s="7"/>
+      <c r="FX19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="FE19" s="4" t="s">
+      <c r="FY19" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:161" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:181" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>419</v>
       </c>
@@ -5995,56 +6188,45 @@
       <c r="R20" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="AD20" s="28" t="s">
+      <c r="AO20" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="AE20" s="29" t="s">
+      <c r="AP20" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="AF20" s="28" t="s">
+      <c r="AQ20" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28" t="s">
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="AJ20" s="9" t="s">
+      <c r="AU20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="30"/>
-      <c r="AT20" s="30"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
+      <c r="AY20" s="30"/>
       <c r="AZ20" s="30"/>
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
       <c r="BC20" s="30"/>
       <c r="BD20" s="30"/>
       <c r="BE20" s="30"/>
-      <c r="BF20" s="28"/>
+      <c r="BF20" s="30"/>
       <c r="BG20" s="28"/>
       <c r="BH20" s="28"/>
       <c r="BI20" s="28"/>
       <c r="BJ20" s="28"/>
       <c r="BK20" s="28"/>
-      <c r="BL20" s="28"/>
-      <c r="BM20" s="28"/>
-      <c r="BN20" s="28"/>
-      <c r="BO20" s="28"/>
-      <c r="BP20" s="28"/>
-      <c r="BQ20" s="28"/>
+      <c r="BL20" s="30"/>
+      <c r="BM20" s="30"/>
+      <c r="BN20" s="30"/>
+      <c r="BO20" s="30"/>
+      <c r="BP20" s="30"/>
+      <c r="BQ20" s="30"/>
       <c r="BR20" s="28"/>
       <c r="BS20" s="28"/>
       <c r="BT20" s="28"/>
@@ -6053,9 +6235,7 @@
       <c r="BW20" s="28"/>
       <c r="BX20" s="28"/>
       <c r="BY20" s="28"/>
-      <c r="BZ20" s="28">
-        <v>4</v>
-      </c>
+      <c r="BZ20" s="28"/>
       <c r="CA20" s="28"/>
       <c r="CB20" s="28"/>
       <c r="CC20" s="28"/>
@@ -6067,7 +6247,9 @@
       <c r="CI20" s="28"/>
       <c r="CJ20" s="28"/>
       <c r="CK20" s="28"/>
-      <c r="CL20" s="28"/>
+      <c r="CL20" s="28">
+        <v>4</v>
+      </c>
       <c r="CM20" s="28"/>
       <c r="CN20" s="28"/>
       <c r="CO20" s="28"/>
@@ -6118,12 +6300,8 @@
       <c r="EH20" s="28"/>
       <c r="EI20" s="28"/>
       <c r="EJ20" s="28"/>
-      <c r="EK20" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="EL20" s="28" t="s">
-        <v>474</v>
-      </c>
+      <c r="EK20" s="28"/>
+      <c r="EL20" s="28"/>
       <c r="EM20" s="28"/>
       <c r="EN20" s="28"/>
       <c r="EO20" s="28"/>
@@ -6137,22 +6315,46 @@
       <c r="EW20" s="28"/>
       <c r="EX20" s="28"/>
       <c r="EY20" s="28"/>
-      <c r="EZ20" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="FA20" s="20" t="s">
-        <v>251</v>
-      </c>
+      <c r="EZ20" s="28"/>
+      <c r="FA20" s="28"/>
       <c r="FB20" s="28"/>
       <c r="FC20" s="28"/>
-      <c r="FD20" s="28" t="s">
+      <c r="FD20" s="28"/>
+      <c r="FE20" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="FF20" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="FG20" s="28"/>
+      <c r="FH20" s="28"/>
+      <c r="FI20" s="28"/>
+      <c r="FJ20" s="28"/>
+      <c r="FK20" s="28"/>
+      <c r="FL20" s="28"/>
+      <c r="FM20" s="28"/>
+      <c r="FN20" s="28"/>
+      <c r="FO20" s="28"/>
+      <c r="FP20" s="28"/>
+      <c r="FQ20" s="28"/>
+      <c r="FR20" s="28"/>
+      <c r="FS20" s="28"/>
+      <c r="FT20" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="FU20" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="FV20" s="28"/>
+      <c r="FW20" s="28"/>
+      <c r="FX20" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="FE20" s="27" t="s">
+      <c r="FY20" s="27" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>419</v>
       </c>
@@ -6198,40 +6400,29 @@
       <c r="R21" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="AD21" s="7" t="s">
+      <c r="AO21" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="AE21" s="17" t="s">
+      <c r="AP21" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="AF21" s="7" t="s">
+      <c r="AQ21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ21" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK21" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AL21" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
-      <c r="AT21" s="7"/>
-      <c r="AU21" s="7"/>
-      <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
+      <c r="AT21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AW21" s="7" t="s">
+        <v>498</v>
+      </c>
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="7"/>
@@ -6304,18 +6495,12 @@
       <c r="DO21" s="7"/>
       <c r="DP21" s="7"/>
       <c r="DQ21" s="7"/>
-      <c r="DR21" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="DR21" s="7"/>
       <c r="DS21" s="7"/>
       <c r="DT21" s="7"/>
       <c r="DU21" s="7"/>
-      <c r="DV21" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="DW21" s="7" t="s">
-        <v>499</v>
-      </c>
+      <c r="DV21" s="7"/>
+      <c r="DW21" s="7"/>
       <c r="DX21" s="7"/>
       <c r="DY21" s="7"/>
       <c r="DZ21" s="7"/>
@@ -6326,47 +6511,73 @@
       <c r="EE21" s="7"/>
       <c r="EF21" s="7"/>
       <c r="EG21" s="7"/>
-      <c r="EH21" s="7"/>
+      <c r="EH21" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="EI21" s="7"/>
       <c r="EJ21" s="7"/>
-      <c r="EK21" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="EL21" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="EN21" s="7"/>
+      <c r="EK21" s="7"/>
+      <c r="EL21" s="7"/>
+      <c r="EM21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="EN21" s="7" t="s">
+        <v>499</v>
+      </c>
       <c r="EO21" s="7"/>
       <c r="EP21" s="7"/>
       <c r="EQ21" s="7"/>
       <c r="ER21" s="7"/>
       <c r="ES21" s="7"/>
       <c r="ET21" s="7"/>
-      <c r="EU21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="EV21" s="7" t="s">
-        <v>501</v>
-      </c>
+      <c r="EU21" s="7"/>
+      <c r="EV21" s="7"/>
       <c r="EW21" s="7"/>
       <c r="EX21" s="7"/>
       <c r="EY21" s="7"/>
-      <c r="EZ21" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="FA21" s="17" t="s">
-        <v>260</v>
-      </c>
+      <c r="EZ21" s="7"/>
+      <c r="FA21" s="7"/>
       <c r="FB21" s="7"/>
       <c r="FC21" s="7"/>
-      <c r="FD21" s="7" t="s">
+      <c r="FD21" s="7"/>
+      <c r="FE21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="FF21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="FH21" s="7"/>
+      <c r="FI21" s="7"/>
+      <c r="FJ21" s="7"/>
+      <c r="FK21" s="7"/>
+      <c r="FL21" s="7"/>
+      <c r="FM21" s="7"/>
+      <c r="FN21" s="7"/>
+      <c r="FO21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="FP21" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="FQ21" s="7"/>
+      <c r="FR21" s="7"/>
+      <c r="FS21" s="7"/>
+      <c r="FT21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="FU21" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="FV21" s="7"/>
+      <c r="FW21" s="7"/>
+      <c r="FX21" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="FE21" s="4" t="s">
+      <c r="FY21" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>419</v>
       </c>
@@ -6412,17 +6623,17 @@
       <c r="R22" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AO22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AP22" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="AF22" s="4" t="s">
+      <c r="AQ22" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>419</v>
       </c>
@@ -6469,7 +6680,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>419</v>
       </c>
@@ -6516,7 +6727,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="25" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>419</v>
       </c>
@@ -6586,34 +6797,23 @@
       <c r="Z25" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="AD25" s="7" t="s">
+      <c r="AO25" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="AE25" s="21" t="s">
+      <c r="AP25" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="AF25" s="7" t="s">
+      <c r="AQ25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
-      <c r="AT25" s="7"/>
-      <c r="AU25" s="7"/>
+      <c r="AT25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU25" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AV25" s="7"/>
       <c r="AW25" s="7"/>
       <c r="AX25" s="7"/>
@@ -6666,12 +6866,8 @@
       <c r="CS25" s="7"/>
       <c r="CT25" s="7"/>
       <c r="CU25" s="7"/>
-      <c r="CV25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="CW25" s="7" t="s">
-        <v>156</v>
-      </c>
+      <c r="CV25" s="7"/>
+      <c r="CW25" s="7"/>
       <c r="CX25" s="7"/>
       <c r="CY25" s="7"/>
       <c r="CZ25" s="7"/>
@@ -6684,8 +6880,12 @@
       <c r="DG25" s="7"/>
       <c r="DH25" s="7"/>
       <c r="DI25" s="7"/>
-      <c r="DJ25" s="7"/>
-      <c r="DK25" s="7"/>
+      <c r="DJ25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="DK25" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="DL25" s="7"/>
       <c r="DM25" s="7"/>
       <c r="DN25" s="7"/>
@@ -6711,18 +6911,12 @@
       <c r="EH25" s="7"/>
       <c r="EI25" s="7"/>
       <c r="EJ25" s="7"/>
-      <c r="EK25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="EL25" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="EO25" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP25" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="EK25" s="7"/>
+      <c r="EL25" s="7"/>
+      <c r="EM25" s="7"/>
+      <c r="EN25" s="7"/>
+      <c r="EO25" s="7"/>
+      <c r="EP25" s="7"/>
       <c r="EQ25" s="7"/>
       <c r="ER25" s="7"/>
       <c r="ES25" s="7"/>
@@ -6732,17 +6926,43 @@
       <c r="EW25" s="7"/>
       <c r="EX25" s="7"/>
       <c r="EY25" s="7"/>
-      <c r="EZ25" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="FA25" s="20" t="s">
-        <v>278</v>
-      </c>
+      <c r="EZ25" s="7"/>
+      <c r="FA25" s="7"/>
       <c r="FB25" s="7"/>
       <c r="FC25" s="7"/>
       <c r="FD25" s="7"/>
+      <c r="FE25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="FF25" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="FI25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="FJ25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="FK25" s="7"/>
+      <c r="FL25" s="7"/>
+      <c r="FM25" s="7"/>
+      <c r="FN25" s="7"/>
+      <c r="FO25" s="7"/>
+      <c r="FP25" s="7"/>
+      <c r="FQ25" s="7"/>
+      <c r="FR25" s="7"/>
+      <c r="FS25" s="7"/>
+      <c r="FT25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="FU25" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="FV25" s="7"/>
+      <c r="FW25" s="7"/>
+      <c r="FX25" s="7"/>
     </row>
-    <row r="26" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>419</v>
       </c>
@@ -6812,23 +7032,23 @@
       <c r="Z26" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AO26" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AP26" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="AF26" s="4" t="s">
+      <c r="AQ26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="FB26" s="4" t="s">
+      <c r="FV26" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="FC26" s="4" t="s">
+      <c r="FW26" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="27" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>419</v>
       </c>
@@ -6899,7 +7119,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="28" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>419</v>
       </c>
@@ -6970,7 +7190,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>419</v>
       </c>
@@ -7041,7 +7261,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>419</v>
       </c>
@@ -7088,7 +7308,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>419</v>
       </c>
@@ -7135,7 +7355,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>419</v>
       </c>
@@ -7205,34 +7425,23 @@
       <c r="Z32" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="AD32" s="7" t="s">
+      <c r="AO32" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="AE32" s="20" t="s">
+      <c r="AP32" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="AF32" s="7" t="s">
+      <c r="AQ32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ32" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="7"/>
+      <c r="AT32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU32" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="AV32" s="7"/>
       <c r="AW32" s="7"/>
       <c r="AX32" s="7"/>
@@ -7250,12 +7459,8 @@
       <c r="BJ32" s="7"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
-      <c r="BM32" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN32" s="7">
-        <v>0</v>
-      </c>
+      <c r="BM32" s="7"/>
+      <c r="BN32" s="7"/>
       <c r="BO32" s="7"/>
       <c r="BP32" s="7"/>
       <c r="BQ32" s="7"/>
@@ -7266,8 +7471,12 @@
       <c r="BV32" s="7"/>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
-      <c r="BY32" s="7"/>
-      <c r="BZ32" s="7"/>
+      <c r="BY32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="7">
+        <v>0</v>
+      </c>
       <c r="CA32" s="7"/>
       <c r="CB32" s="7"/>
       <c r="CC32" s="7"/>
@@ -7332,12 +7541,8 @@
       <c r="EJ32" s="7"/>
       <c r="EK32" s="7"/>
       <c r="EL32" s="7"/>
-      <c r="EM32" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="EN32" s="7" t="s">
-        <v>524</v>
-      </c>
+      <c r="EM32" s="7"/>
+      <c r="EN32" s="7"/>
       <c r="EO32" s="7"/>
       <c r="EP32" s="7"/>
       <c r="EQ32" s="7"/>
@@ -7349,17 +7554,41 @@
       <c r="EW32" s="7"/>
       <c r="EX32" s="7"/>
       <c r="EY32" s="7"/>
-      <c r="EZ32" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="FA32" s="20" t="s">
-        <v>313</v>
-      </c>
+      <c r="EZ32" s="7"/>
+      <c r="FA32" s="7"/>
       <c r="FB32" s="7"/>
       <c r="FC32" s="7"/>
       <c r="FD32" s="7"/>
+      <c r="FE32" s="7"/>
+      <c r="FF32" s="7"/>
+      <c r="FG32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="FH32" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="FI32" s="7"/>
+      <c r="FJ32" s="7"/>
+      <c r="FK32" s="7"/>
+      <c r="FL32" s="7"/>
+      <c r="FM32" s="7"/>
+      <c r="FN32" s="7"/>
+      <c r="FO32" s="7"/>
+      <c r="FP32" s="7"/>
+      <c r="FQ32" s="7"/>
+      <c r="FR32" s="7"/>
+      <c r="FS32" s="7"/>
+      <c r="FT32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="FU32" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="FV32" s="7"/>
+      <c r="FW32" s="7"/>
+      <c r="FX32" s="7"/>
     </row>
-    <row r="33" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>419</v>
       </c>
@@ -7430,7 +7659,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="34" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>419</v>
       </c>
@@ -7501,7 +7730,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="35" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>419</v>
       </c>
@@ -7571,34 +7800,23 @@
       <c r="Z35" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AD35" s="7" t="s">
+      <c r="AO35" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="AE35" s="17" t="s">
+      <c r="AP35" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="AF35" s="7" t="s">
+      <c r="AQ35" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="AJ35" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
       <c r="AS35" s="7"/>
-      <c r="AT35" s="7"/>
-      <c r="AU35" s="7"/>
+      <c r="AT35" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU35" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
       <c r="AX35" s="7"/>
@@ -7668,70 +7886,90 @@
       <c r="DJ35" s="7"/>
       <c r="DK35" s="7"/>
       <c r="DL35" s="7"/>
-      <c r="DM35" s="17"/>
-      <c r="DN35" s="17" t="b">
+      <c r="DM35" s="7"/>
+      <c r="DN35" s="7"/>
+      <c r="DO35" s="7"/>
+      <c r="DP35" s="7"/>
+      <c r="DQ35" s="7"/>
+      <c r="DR35" s="7"/>
+      <c r="DS35" s="7"/>
+      <c r="DT35" s="7"/>
+      <c r="DU35" s="7"/>
+      <c r="DV35" s="7"/>
+      <c r="DW35" s="7"/>
+      <c r="DX35" s="7"/>
+      <c r="DY35" s="7"/>
+      <c r="DZ35" s="7"/>
+      <c r="EA35" s="7"/>
+      <c r="EB35" s="7"/>
+      <c r="EC35" s="17"/>
+      <c r="ED35" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="DO35" s="17"/>
-      <c r="DP35" s="17"/>
-      <c r="DQ35" s="17"/>
-      <c r="DR35" s="17"/>
-      <c r="DS35" s="17"/>
-      <c r="DT35" s="17"/>
-      <c r="DU35" s="17"/>
-      <c r="DV35" s="17"/>
-      <c r="DW35" s="17"/>
-      <c r="DX35" s="17"/>
-      <c r="DY35" s="17"/>
-      <c r="DZ35" s="17"/>
-      <c r="EA35" s="17"/>
-      <c r="EB35" s="17"/>
-      <c r="EC35" s="17"/>
-      <c r="ED35" s="7"/>
-      <c r="EE35" s="7"/>
-      <c r="EF35" s="7"/>
-      <c r="EG35" s="7"/>
-      <c r="EH35" s="7"/>
-      <c r="EI35" s="7"/>
-      <c r="EJ35" s="7"/>
-      <c r="EK35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="EL35" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="EM35" s="7"/>
-      <c r="EN35" s="7"/>
-      <c r="EO35" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EQ35" s="7"/>
-      <c r="ER35" s="7"/>
-      <c r="ES35" s="7"/>
-      <c r="ET35" s="7"/>
-      <c r="EU35" s="7"/>
-      <c r="EV35" s="7"/>
-      <c r="EW35" s="7"/>
+      <c r="EE35" s="17"/>
+      <c r="EF35" s="17"/>
+      <c r="EG35" s="17"/>
+      <c r="EH35" s="17"/>
+      <c r="EI35" s="17"/>
+      <c r="EJ35" s="17"/>
+      <c r="EK35" s="17"/>
+      <c r="EL35" s="17"/>
+      <c r="EM35" s="17"/>
+      <c r="EN35" s="17"/>
+      <c r="EO35" s="17"/>
+      <c r="EP35" s="17"/>
+      <c r="EQ35" s="17"/>
+      <c r="ER35" s="17"/>
+      <c r="ES35" s="17"/>
+      <c r="ET35" s="17"/>
+      <c r="EU35" s="17"/>
+      <c r="EV35" s="17"/>
+      <c r="EW35" s="17"/>
       <c r="EX35" s="7"/>
       <c r="EY35" s="7"/>
-      <c r="EZ35" s="7" t="s">
+      <c r="EZ35" s="7"/>
+      <c r="FA35" s="7"/>
+      <c r="FB35" s="7"/>
+      <c r="FC35" s="7"/>
+      <c r="FD35" s="7"/>
+      <c r="FE35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="FF35" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="FG35" s="7"/>
+      <c r="FH35" s="7"/>
+      <c r="FI35" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="FJ35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="FK35" s="7"/>
+      <c r="FL35" s="7"/>
+      <c r="FM35" s="7"/>
+      <c r="FN35" s="7"/>
+      <c r="FO35" s="7"/>
+      <c r="FP35" s="7"/>
+      <c r="FQ35" s="7"/>
+      <c r="FR35" s="7"/>
+      <c r="FS35" s="7"/>
+      <c r="FT35" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="FA35" s="17" t="s">
+      <c r="FU35" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="FB35" s="7" t="s">
+      <c r="FV35" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="FC35" s="4" t="s">
+      <c r="FW35" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="FD35" s="7"/>
+      <c r="FX35" s="7"/>
     </row>
-    <row r="36" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>419</v>
       </c>
@@ -7787,7 +8025,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>419</v>
       </c>
@@ -7816,7 +8054,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="38" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>419</v>
       </c>
@@ -7886,17 +8124,17 @@
       <c r="Z38" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="AD38" s="4" t="s">
+      <c r="AO38" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AE38" s="4" t="s">
+      <c r="AP38" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="AF38" s="4" t="s">
+      <c r="AQ38" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>419</v>
       </c>
@@ -7966,17 +8204,17 @@
       <c r="Z39" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="AD39" s="4" t="s">
+      <c r="AO39" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="AE39" s="4" t="s">
+      <c r="AP39" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="AF39" s="4" t="s">
+      <c r="AQ39" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>419</v>
       </c>
@@ -8046,70 +8284,55 @@
       <c r="Z40" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="AD40" s="7" t="s">
+      <c r="AO40" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="AE40" s="17" t="s">
+      <c r="AP40" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="AF40" s="7" t="s">
+      <c r="AQ40" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG40" s="7" t="s">
+      <c r="AR40" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AH40" s="7" t="s">
+      <c r="AS40" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="AI40" s="7" t="s">
+      <c r="AT40" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="AJ40" s="17" t="s">
+      <c r="AU40" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="17"/>
-      <c r="AT40" s="17"/>
-      <c r="AU40" s="7"/>
-      <c r="AV40" s="7"/>
-      <c r="AW40" s="7"/>
-      <c r="AX40" s="7"/>
-      <c r="AY40" s="7"/>
-      <c r="AZ40" s="17"/>
-      <c r="BA40" s="17"/>
-      <c r="BB40" s="17"/>
-      <c r="BC40" s="17"/>
-      <c r="BD40" s="17"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
       <c r="BE40" s="17"/>
-      <c r="BF40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG40" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="BF40" s="17"/>
+      <c r="BG40" s="7"/>
       <c r="BH40" s="7"/>
       <c r="BI40" s="7"/>
       <c r="BJ40" s="7"/>
       <c r="BK40" s="7"/>
-      <c r="BL40" s="7"/>
-      <c r="BM40" s="7"/>
-      <c r="BN40" s="7"/>
-      <c r="BO40" s="7"/>
-      <c r="BP40" s="7"/>
-      <c r="BQ40" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="BR40" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS40" s="7"/>
+      <c r="BL40" s="17"/>
+      <c r="BM40" s="17"/>
+      <c r="BN40" s="17"/>
+      <c r="BO40" s="17"/>
+      <c r="BP40" s="17"/>
+      <c r="BQ40" s="17"/>
+      <c r="BR40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS40" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BT40" s="7"/>
       <c r="BU40" s="7"/>
       <c r="BV40" s="7"/>
@@ -8119,10 +8342,12 @@
       <c r="BZ40" s="7"/>
       <c r="CA40" s="7"/>
       <c r="CB40" s="7"/>
-      <c r="CC40" s="7">
-        <v>3</v>
-      </c>
-      <c r="CD40" s="7"/>
+      <c r="CC40" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="CD40" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="CE40" s="7"/>
       <c r="CF40" s="7"/>
       <c r="CG40" s="7"/>
@@ -8133,7 +8358,9 @@
       <c r="CL40" s="7"/>
       <c r="CM40" s="7"/>
       <c r="CN40" s="7"/>
-      <c r="CO40" s="7"/>
+      <c r="CO40" s="7">
+        <v>3</v>
+      </c>
       <c r="CP40" s="7"/>
       <c r="CQ40" s="7"/>
       <c r="CR40" s="7"/>
@@ -8181,12 +8408,8 @@
       <c r="EH40" s="7"/>
       <c r="EI40" s="7"/>
       <c r="EJ40" s="7"/>
-      <c r="EK40" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="EL40" s="7" t="s">
-        <v>541</v>
-      </c>
+      <c r="EK40" s="7"/>
+      <c r="EL40" s="7"/>
       <c r="EM40" s="7"/>
       <c r="EN40" s="7"/>
       <c r="EO40" s="7"/>
@@ -8200,17 +8423,41 @@
       <c r="EW40" s="7"/>
       <c r="EX40" s="7"/>
       <c r="EY40" s="7"/>
-      <c r="EZ40" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="FA40" s="17" t="s">
-        <v>352</v>
-      </c>
+      <c r="EZ40" s="7"/>
+      <c r="FA40" s="7"/>
       <c r="FB40" s="7"/>
       <c r="FC40" s="7"/>
       <c r="FD40" s="7"/>
+      <c r="FE40" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="FF40" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="FG40" s="7"/>
+      <c r="FH40" s="7"/>
+      <c r="FI40" s="7"/>
+      <c r="FJ40" s="7"/>
+      <c r="FK40" s="7"/>
+      <c r="FL40" s="7"/>
+      <c r="FM40" s="7"/>
+      <c r="FN40" s="7"/>
+      <c r="FO40" s="7"/>
+      <c r="FP40" s="7"/>
+      <c r="FQ40" s="7"/>
+      <c r="FR40" s="7"/>
+      <c r="FS40" s="7"/>
+      <c r="FT40" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="FU40" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="FV40" s="7"/>
+      <c r="FW40" s="7"/>
+      <c r="FX40" s="7"/>
     </row>
-    <row r="41" spans="1:161" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:181" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>419</v>
       </c>
@@ -8280,34 +8527,23 @@
       <c r="Z41" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="AD41" s="7" t="s">
+      <c r="AO41" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="AE41" s="17" t="s">
+      <c r="AP41" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="AF41" s="26" t="s">
+      <c r="AQ41" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ41" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
+      <c r="AT41" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU41" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="AV41" s="26"/>
       <c r="AW41" s="26"/>
       <c r="AX41" s="26"/>
@@ -8360,12 +8596,8 @@
       <c r="CS41" s="26"/>
       <c r="CT41" s="26"/>
       <c r="CU41" s="26"/>
-      <c r="CV41" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="CW41" s="26" t="s">
-        <v>145</v>
-      </c>
+      <c r="CV41" s="26"/>
+      <c r="CW41" s="26"/>
       <c r="CX41" s="26"/>
       <c r="CY41" s="26"/>
       <c r="CZ41" s="26"/>
@@ -8378,8 +8610,12 @@
       <c r="DG41" s="26"/>
       <c r="DH41" s="26"/>
       <c r="DI41" s="26"/>
-      <c r="DJ41" s="26"/>
-      <c r="DK41" s="26"/>
+      <c r="DJ41" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="DK41" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="DL41" s="26"/>
       <c r="DM41" s="26"/>
       <c r="DN41" s="26"/>
@@ -8398,27 +8634,15 @@
       <c r="EA41" s="26"/>
       <c r="EB41" s="26"/>
       <c r="EC41" s="26"/>
-      <c r="ED41" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="EE41" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="EF41" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="EG41" s="26" t="s">
-        <v>543</v>
-      </c>
+      <c r="ED41" s="26"/>
+      <c r="EE41" s="26"/>
+      <c r="EF41" s="26"/>
+      <c r="EG41" s="26"/>
       <c r="EH41" s="26"/>
       <c r="EI41" s="26"/>
       <c r="EJ41" s="26"/>
-      <c r="EK41" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="EL41" s="7" t="s">
-        <v>479</v>
-      </c>
+      <c r="EK41" s="26"/>
+      <c r="EL41" s="26"/>
       <c r="EM41" s="26"/>
       <c r="EN41" s="26"/>
       <c r="EO41" s="26"/>
@@ -8430,23 +8654,55 @@
       <c r="EU41" s="26"/>
       <c r="EV41" s="26"/>
       <c r="EW41" s="26"/>
-      <c r="EX41" s="26"/>
-      <c r="EY41" s="26"/>
+      <c r="EX41" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="EY41" s="26" t="s">
+        <v>542</v>
+      </c>
       <c r="EZ41" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="FA41" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="FB41" s="26"/>
+      <c r="FC41" s="26"/>
+      <c r="FD41" s="26"/>
+      <c r="FE41" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="FF41" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="FG41" s="26"/>
+      <c r="FH41" s="26"/>
+      <c r="FI41" s="26"/>
+      <c r="FJ41" s="26"/>
+      <c r="FK41" s="26"/>
+      <c r="FL41" s="26"/>
+      <c r="FM41" s="26"/>
+      <c r="FN41" s="26"/>
+      <c r="FO41" s="26"/>
+      <c r="FP41" s="26"/>
+      <c r="FQ41" s="26"/>
+      <c r="FR41" s="26"/>
+      <c r="FS41" s="26"/>
+      <c r="FT41" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="FA41" s="20" t="s">
+      <c r="FU41" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="FB41" s="26" t="s">
+      <c r="FV41" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="FC41" s="25" t="s">
+      <c r="FW41" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="FD41" s="26"/>
+      <c r="FX41" s="26"/>
     </row>
-    <row r="42" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>419</v>
       </c>
@@ -8516,32 +8772,23 @@
       <c r="Z42" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="AD42" s="7" t="s">
+      <c r="AO42" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="AE42" s="17" t="s">
+      <c r="AP42" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="AF42" s="7" t="s">
+      <c r="AQ42" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG42" s="7"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7" t="s">
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="AJ42" s="7" t="s">
+      <c r="AU42" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-      <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
-      <c r="AO42" s="7"/>
-      <c r="AP42" s="7"/>
-      <c r="AQ42" s="7"/>
-      <c r="AR42" s="7"/>
-      <c r="AU42" s="7"/>
       <c r="AV42" s="7"/>
       <c r="AW42" s="7"/>
       <c r="AX42" s="7"/>
@@ -8551,8 +8798,6 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="7"/>
-      <c r="BE42" s="7"/>
-      <c r="BF42" s="7"/>
       <c r="BG42" s="7"/>
       <c r="BH42" s="7"/>
       <c r="BI42" s="7"/>
@@ -8581,12 +8826,10 @@
       <c r="CF42" s="7"/>
       <c r="CG42" s="7"/>
       <c r="CH42" s="7"/>
-      <c r="CK42" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="CL42" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="CI42" s="7"/>
+      <c r="CJ42" s="7"/>
+      <c r="CK42" s="7"/>
+      <c r="CL42" s="7"/>
       <c r="CM42" s="7"/>
       <c r="CN42" s="7"/>
       <c r="CO42" s="7"/>
@@ -8597,10 +8840,12 @@
       <c r="CT42" s="7"/>
       <c r="CU42" s="7"/>
       <c r="CV42" s="7"/>
-      <c r="CW42" s="7"/>
-      <c r="CX42" s="7"/>
-      <c r="CY42" s="7"/>
-      <c r="CZ42" s="7"/>
+      <c r="CY42" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="CZ42" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="DA42" s="7"/>
       <c r="DB42" s="7"/>
       <c r="DC42" s="7"/>
@@ -8639,40 +8884,60 @@
       <c r="EJ42" s="7"/>
       <c r="EK42" s="7"/>
       <c r="EL42" s="7"/>
+      <c r="EM42" s="7"/>
       <c r="EN42" s="7"/>
-      <c r="EO42" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="EP42" s="7" t="s">
-        <v>548</v>
-      </c>
+      <c r="EO42" s="7"/>
+      <c r="EP42" s="7"/>
       <c r="EQ42" s="7"/>
       <c r="ER42" s="7"/>
       <c r="ES42" s="7"/>
       <c r="ET42" s="7"/>
       <c r="EU42" s="7"/>
       <c r="EV42" s="7"/>
-      <c r="EW42" s="7" t="s">
-        <v>549</v>
-      </c>
+      <c r="EW42" s="7"/>
       <c r="EX42" s="7"/>
       <c r="EY42" s="7"/>
-      <c r="EZ42" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="FA42" s="20" t="s">
-        <v>370</v>
-      </c>
+      <c r="EZ42" s="7"/>
+      <c r="FA42" s="7"/>
       <c r="FB42" s="7"/>
       <c r="FC42" s="7"/>
-      <c r="FD42" s="7" t="s">
+      <c r="FD42" s="7"/>
+      <c r="FE42" s="7"/>
+      <c r="FF42" s="7"/>
+      <c r="FH42" s="7"/>
+      <c r="FI42" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="FJ42" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="FK42" s="7"/>
+      <c r="FL42" s="7"/>
+      <c r="FM42" s="7"/>
+      <c r="FN42" s="7"/>
+      <c r="FO42" s="7"/>
+      <c r="FP42" s="7"/>
+      <c r="FQ42" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="FR42" s="7"/>
+      <c r="FS42" s="7"/>
+      <c r="FT42" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="FU42" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="FV42" s="7"/>
+      <c r="FW42" s="7"/>
+      <c r="FX42" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="FE42" s="4" t="s">
+      <c r="FY42" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>419</v>
       </c>
@@ -8742,17 +9007,17 @@
       <c r="Z43" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="AD43" s="4" t="s">
+      <c r="AO43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AE43" s="4" t="s">
+      <c r="AP43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AF43" s="4" t="s">
+      <c r="AQ43" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>419</v>
       </c>
@@ -8798,17 +9063,17 @@
       <c r="R44" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="AD44" s="4" t="s">
+      <c r="AO44" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AE44" s="4" t="s">
+      <c r="AP44" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AF44" s="4" t="s">
+      <c r="AQ44" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>419</v>
       </c>
@@ -8854,17 +9119,17 @@
       <c r="R45" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="AD45" s="4" t="s">
+      <c r="AO45" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AE45" s="4" t="s">
+      <c r="AP45" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="AF45" s="4" t="s">
+      <c r="AQ45" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>419</v>
       </c>
@@ -8911,7 +9176,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="47" spans="1:161" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:181" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>419</v>
       </c>
@@ -8957,17 +9222,17 @@
       <c r="R47" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="AD47" s="4" t="s">
+      <c r="AO47" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AE47" s="4" t="s">
+      <c r="AP47" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AF47" s="4" t="s">
+      <c r="AQ47" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>419</v>
       </c>
@@ -9037,43 +9302,32 @@
       <c r="Z48" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="AD48" s="7" t="s">
+      <c r="AO48" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AE48" s="17" t="s">
+      <c r="AP48" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="AF48" s="7" t="s">
+      <c r="AQ48" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="7" t="s">
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="AJ48" s="17" t="s">
+      <c r="AU48" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="7"/>
-      <c r="AT48" s="7"/>
-      <c r="AU48" s="7"/>
-      <c r="AV48" s="7"/>
-      <c r="AW48" s="7"/>
-      <c r="AX48" s="7"/>
-      <c r="AY48" s="7"/>
-      <c r="AZ48" s="7"/>
-      <c r="BA48" s="7"/>
-      <c r="BB48" s="7"/>
-      <c r="BC48" s="7"/>
-      <c r="BD48" s="7"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
       <c r="BE48" s="7"/>
       <c r="BF48" s="7"/>
       <c r="BG48" s="7"/>
@@ -9139,18 +9393,12 @@
       <c r="DO48" s="7"/>
       <c r="DP48" s="7"/>
       <c r="DQ48" s="7"/>
-      <c r="DR48" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="DR48" s="7"/>
       <c r="DS48" s="7"/>
       <c r="DT48" s="7"/>
       <c r="DU48" s="7"/>
-      <c r="DV48" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="DW48" s="7" t="s">
-        <v>499</v>
-      </c>
+      <c r="DV48" s="7"/>
+      <c r="DW48" s="7"/>
       <c r="DX48" s="7"/>
       <c r="DY48" s="7"/>
       <c r="DZ48" s="7"/>
@@ -9161,17 +9409,19 @@
       <c r="EE48" s="7"/>
       <c r="EF48" s="7"/>
       <c r="EG48" s="7"/>
-      <c r="EH48" s="7"/>
+      <c r="EH48" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="EI48" s="7"/>
       <c r="EJ48" s="7"/>
-      <c r="EK48" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="EL48" s="7" t="s">
+      <c r="EK48" s="7"/>
+      <c r="EL48" s="7"/>
+      <c r="EM48" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="EN48" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="EM48" s="7"/>
-      <c r="EN48" s="7"/>
       <c r="EO48" s="7"/>
       <c r="EP48" s="7"/>
       <c r="EQ48" s="7"/>
@@ -9183,26 +9433,50 @@
       <c r="EW48" s="7"/>
       <c r="EX48" s="7"/>
       <c r="EY48" s="7"/>
-      <c r="EZ48" s="7" t="s">
+      <c r="EZ48" s="7"/>
+      <c r="FA48" s="7"/>
+      <c r="FB48" s="7"/>
+      <c r="FC48" s="7"/>
+      <c r="FD48" s="7"/>
+      <c r="FE48" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="FF48" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="FG48" s="7"/>
+      <c r="FH48" s="7"/>
+      <c r="FI48" s="7"/>
+      <c r="FJ48" s="7"/>
+      <c r="FK48" s="7"/>
+      <c r="FL48" s="7"/>
+      <c r="FM48" s="7"/>
+      <c r="FN48" s="7"/>
+      <c r="FO48" s="7"/>
+      <c r="FP48" s="7"/>
+      <c r="FQ48" s="7"/>
+      <c r="FR48" s="7"/>
+      <c r="FS48" s="7"/>
+      <c r="FT48" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="FA48" s="17" t="s">
+      <c r="FU48" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="FB48" s="7" t="s">
+      <c r="FV48" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="FC48" s="4" t="s">
+      <c r="FW48" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="FD48" s="7" t="s">
+      <c r="FX48" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="FE48" s="4" t="s">
+      <c r="FY48" s="4" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="49" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>419</v>
       </c>
@@ -9248,38 +9522,27 @@
       <c r="R49" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="AD49" s="7" t="s">
+      <c r="AO49" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AE49" s="17" t="s">
+      <c r="AP49" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="AF49" s="7" t="s">
+      <c r="AQ49" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="AG49" s="7" t="s">
+      <c r="AR49" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AH49" s="7" t="s">
+      <c r="AS49" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="AI49" s="7" t="s">
+      <c r="AT49" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="AJ49" s="7" t="s">
+      <c r="AU49" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AK49" s="7"/>
-      <c r="AL49" s="7"/>
-      <c r="AM49" s="7"/>
-      <c r="AN49" s="7"/>
-      <c r="AO49" s="7"/>
-      <c r="AP49" s="7"/>
-      <c r="AQ49" s="7"/>
-      <c r="AR49" s="7"/>
-      <c r="AS49" s="7"/>
-      <c r="AT49" s="7"/>
-      <c r="AU49" s="7"/>
       <c r="AV49" s="7"/>
       <c r="AW49" s="7"/>
       <c r="AX49" s="7"/>
@@ -9290,12 +9553,8 @@
       <c r="BC49" s="7"/>
       <c r="BD49" s="7"/>
       <c r="BE49" s="7"/>
-      <c r="BF49" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG49" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="BF49" s="7"/>
+      <c r="BG49" s="7"/>
       <c r="BH49" s="7"/>
       <c r="BI49" s="7"/>
       <c r="BJ49" s="7"/>
@@ -9306,14 +9565,16 @@
       <c r="BO49" s="7"/>
       <c r="BP49" s="7"/>
       <c r="BQ49" s="7"/>
-      <c r="BR49" s="7"/>
-      <c r="BS49" s="7"/>
+      <c r="BR49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS49" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BT49" s="7"/>
       <c r="BU49" s="7"/>
       <c r="BV49" s="7"/>
-      <c r="BW49" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="BW49" s="7"/>
       <c r="BX49" s="7"/>
       <c r="BY49" s="7"/>
       <c r="BZ49" s="7"/>
@@ -9325,7 +9586,9 @@
       <c r="CF49" s="7"/>
       <c r="CG49" s="7"/>
       <c r="CH49" s="7"/>
-      <c r="CI49" s="7"/>
+      <c r="CI49" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="CJ49" s="7"/>
       <c r="CK49" s="7"/>
       <c r="CL49" s="7"/>
@@ -9342,9 +9605,7 @@
       <c r="CW49" s="7"/>
       <c r="CX49" s="7"/>
       <c r="CY49" s="7"/>
-      <c r="CZ49" s="7">
-        <v>4</v>
-      </c>
+      <c r="CZ49" s="7"/>
       <c r="DA49" s="7"/>
       <c r="DB49" s="7"/>
       <c r="DC49" s="7"/>
@@ -9358,7 +9619,9 @@
       <c r="DK49" s="7"/>
       <c r="DL49" s="7"/>
       <c r="DM49" s="7"/>
-      <c r="DN49" s="7"/>
+      <c r="DN49" s="7">
+        <v>4</v>
+      </c>
       <c r="DO49" s="7"/>
       <c r="DP49" s="7"/>
       <c r="DQ49" s="7"/>
@@ -9381,12 +9644,8 @@
       <c r="EH49" s="7"/>
       <c r="EI49" s="7"/>
       <c r="EJ49" s="7"/>
-      <c r="EK49" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="EL49" s="7" t="s">
-        <v>562</v>
-      </c>
+      <c r="EK49" s="7"/>
+      <c r="EL49" s="7"/>
       <c r="EM49" s="7"/>
       <c r="EN49" s="7"/>
       <c r="EO49" s="7"/>
@@ -9400,22 +9659,46 @@
       <c r="EW49" s="7"/>
       <c r="EX49" s="7"/>
       <c r="EY49" s="7"/>
-      <c r="EZ49" s="7" t="s">
+      <c r="EZ49" s="7"/>
+      <c r="FA49" s="7"/>
+      <c r="FB49" s="7"/>
+      <c r="FC49" s="7"/>
+      <c r="FD49" s="7"/>
+      <c r="FE49" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="FF49" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="FG49" s="7"/>
+      <c r="FH49" s="7"/>
+      <c r="FI49" s="7"/>
+      <c r="FJ49" s="7"/>
+      <c r="FK49" s="7"/>
+      <c r="FL49" s="7"/>
+      <c r="FM49" s="7"/>
+      <c r="FN49" s="7"/>
+      <c r="FO49" s="7"/>
+      <c r="FP49" s="7"/>
+      <c r="FQ49" s="7"/>
+      <c r="FR49" s="7"/>
+      <c r="FS49" s="7"/>
+      <c r="FT49" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="FA49" s="17" t="s">
+      <c r="FU49" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="FB49" s="1"/>
-      <c r="FC49" s="1"/>
-      <c r="FD49" s="7" t="s">
+      <c r="FV49" s="1"/>
+      <c r="FW49" s="1"/>
+      <c r="FX49" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="FE49" s="4" t="s">
+      <c r="FY49" s="4" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="50" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>419</v>
       </c>
@@ -9462,7 +9745,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="51" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>419</v>
       </c>
@@ -9508,17 +9791,17 @@
       <c r="R51" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="AD51" s="4" t="s">
+      <c r="AO51" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="AE51" s="4" t="s">
+      <c r="AP51" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AF51" s="4" t="s">
+      <c r="AQ51" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>419</v>
       </c>
@@ -9564,17 +9847,17 @@
       <c r="R52" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="AD52" s="4" t="s">
+      <c r="AO52" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="AE52" s="4" t="s">
+      <c r="AP52" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="AF52" s="4" t="s">
+      <c r="AQ52" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>419</v>
       </c>
@@ -9644,17 +9927,17 @@
       <c r="Z53" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="AD53" s="4" t="s">
+      <c r="AO53" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="AE53" s="4" t="s">
+      <c r="AP53" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="AF53" s="4" t="s">
+      <c r="AQ53" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:161" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:181" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>419</v>
       </c>
@@ -9724,21 +10007,21 @@
       <c r="Z54" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="AD54" s="4" t="s">
+      <c r="AO54" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="AE54" s="4" t="s">
+      <c r="AP54" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="AF54" s="4" t="s">
+      <c r="AQ54" s="4" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AJ2" r:id="rId1" xr:uid="{2A8FD037-E2EC-473C-94AC-C8B0ECD279A1}"/>
-    <hyperlink ref="BY2" r:id="rId2" xr:uid="{C50662C2-25DA-48C3-B985-6479B19F6685}"/>
-    <hyperlink ref="BR8" r:id="rId3" xr:uid="{6B8E1848-038E-4BDE-94EC-41F9E721C68B}"/>
+    <hyperlink ref="AU2" r:id="rId1" xr:uid="{2A8FD037-E2EC-473C-94AC-C8B0ECD279A1}"/>
+    <hyperlink ref="CK2" r:id="rId2" xr:uid="{C50662C2-25DA-48C3-B985-6479B19F6685}"/>
+    <hyperlink ref="CD8" r:id="rId3" xr:uid="{6B8E1848-038E-4BDE-94EC-41F9E721C68B}"/>
     <hyperlink ref="N4" r:id="rId4" xr:uid="{F860A5AE-CEFB-4509-A70C-17083A4DBA7C}"/>
     <hyperlink ref="N8" r:id="rId5" xr:uid="{58F557C3-1F9E-458F-8736-D6F48D484593}"/>
     <hyperlink ref="N10" r:id="rId6" xr:uid="{1FD6E3DD-F567-4A29-92DD-9DD37C6E7C3A}"/>
@@ -9747,7 +10030,7 @@
     <hyperlink ref="N14" r:id="rId9" xr:uid="{9D13B883-C0D2-44DA-8B00-89C57237AF22}"/>
     <hyperlink ref="N17" r:id="rId10" xr:uid="{E0852F2E-D537-4241-8B32-B9498B495FBD}"/>
     <hyperlink ref="N18" r:id="rId11" xr:uid="{F7452C77-444D-4646-A89E-7A813424EA3E}"/>
-    <hyperlink ref="AJ20" r:id="rId12" xr:uid="{A471A8A9-6FD3-487F-A75D-4E889E7DC5D8}"/>
+    <hyperlink ref="AU20" r:id="rId12" xr:uid="{A471A8A9-6FD3-487F-A75D-4E889E7DC5D8}"/>
     <hyperlink ref="N21" r:id="rId13" xr:uid="{8B2F1019-0DBB-4C7F-BDAD-A7FC6C1975AE}"/>
     <hyperlink ref="N22" r:id="rId14" xr:uid="{E87ADCA6-974F-4BD3-B8E7-0A6DE5943257}"/>
     <hyperlink ref="N23" r:id="rId15" xr:uid="{A3127EAC-DEC6-45BF-AE99-52FA3DC7DDEF}"/>
@@ -9765,7 +10048,7 @@
     <hyperlink ref="N35" r:id="rId27" xr:uid="{E43EDB18-8566-45F3-A1E7-26A8FBD12305}"/>
     <hyperlink ref="N36" r:id="rId28" xr:uid="{577F67A0-922A-4248-8359-B4322D210218}"/>
     <hyperlink ref="N38" r:id="rId29" xr:uid="{670AB1CC-C026-466E-BD4B-A1597AAFD42C}"/>
-    <hyperlink ref="BR40" r:id="rId30" xr:uid="{08C1C99B-786E-457C-8DDA-AD7A061475BC}"/>
+    <hyperlink ref="CD40" r:id="rId30" xr:uid="{08C1C99B-786E-457C-8DDA-AD7A061475BC}"/>
     <hyperlink ref="N42" r:id="rId31" xr:uid="{DD476741-1EC1-4375-8F58-5834AB20DC41}"/>
     <hyperlink ref="N43" r:id="rId32" xr:uid="{79FE7986-9CA0-4045-96D8-EA2B6DCB891A}"/>
     <hyperlink ref="N44" r:id="rId33" xr:uid="{F9E120FC-E8BC-441D-9452-2CA3A8D00329}"/>
@@ -9781,11 +10064,11 @@
     <hyperlink ref="N6" r:id="rId43" xr:uid="{B9478EF2-722C-4717-840D-1FCA99B947E4}"/>
     <hyperlink ref="N7" r:id="rId44" xr:uid="{73A05ACA-A77B-40B6-B6FE-D6113C44868E}"/>
     <hyperlink ref="N9" r:id="rId45" xr:uid="{46CBA00D-0CFC-4834-8BD1-0C6A2289F4ED}"/>
-    <hyperlink ref="ER11" r:id="rId46" xr:uid="{1AF8C8C4-3358-4107-866F-61C1F10823D6}"/>
+    <hyperlink ref="FL11" r:id="rId46" xr:uid="{1AF8C8C4-3358-4107-866F-61C1F10823D6}"/>
     <hyperlink ref="N13" r:id="rId47" xr:uid="{0C138D61-3E70-4EE2-9EF9-87DABCD9ECEF}"/>
     <hyperlink ref="N15" r:id="rId48" xr:uid="{A0146036-DEC0-4AF9-A169-195A83B57587}"/>
     <hyperlink ref="N16" r:id="rId49" xr:uid="{28F3759F-4CD5-4229-A7FB-6ED1FE0816C1}"/>
-    <hyperlink ref="FE18" r:id="rId50" xr:uid="{88E02110-21ED-4917-9091-CC4D7F69BCE5}"/>
+    <hyperlink ref="FY18" r:id="rId50" xr:uid="{88E02110-21ED-4917-9091-CC4D7F69BCE5}"/>
     <hyperlink ref="N19" r:id="rId51" xr:uid="{9E711BAB-6F8B-49A2-A5A3-019FEF025099}"/>
     <hyperlink ref="W19" r:id="rId52" xr:uid="{6B8C0BD5-1DF2-4ECA-961C-081244BEA0B2}"/>
     <hyperlink ref="N26" r:id="rId53" xr:uid="{140969AB-8C3F-4FDF-B4CE-6BE53BA5558C}"/>
